--- a/Outputs/5. Budget constrained/Grid Search/Output Files/1750000/Output_4_1.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/1750000/Output_4_1.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-2328292.807755558</v>
+        <v>-2330529.504172607</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>3378326.84923422</v>
+        <v>2264668.83780062</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>603248.4937673431</v>
+        <v>603248.493767343</v>
       </c>
     </row>
     <row r="9">
@@ -541,7 +541,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>16326771.75622087</v>
+        <v>16353570.61531172</v>
       </c>
     </row>
     <row r="11">
@@ -656,28 +656,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G2" t="n">
-        <v>13.784170020795</v>
+        <v>402.9596357181264</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>13.16872415207715</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -707,22 +707,22 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>0.1543906181820205</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>317.5290973110789</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
         <v>386.2379386560536</v>
@@ -814,7 +814,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -826,13 +826,13 @@
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>84.84244993117434</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
@@ -871,7 +871,7 @@
         <v>225.0351054580843</v>
       </c>
       <c r="U4" t="n">
-        <v>50.43151777216858</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -908,10 +908,10 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
-        <v>413.784170020795</v>
+        <v>13.784170020795</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>190.4773010946592</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -941,13 +941,13 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U5" t="n">
         <v>251.2241675082893</v>
@@ -959,7 +959,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>61.40402402712849</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
         <v>386.2379386560536</v>
@@ -1051,10 +1051,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>43.31785343913998</v>
       </c>
       <c r="D7" t="n">
         <v>0</v>
@@ -1063,16 +1063,16 @@
         <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>100.5344742103486</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>134.9656217923382</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1114,13 +1114,13 @@
         <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="8">
@@ -1130,13 +1130,13 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
         <v>0</v>
@@ -1151,7 +1151,7 @@
         <v>323.9227727643571</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1181,7 +1181,7 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0.8413405167203609</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T8" t="n">
         <v>216.4483203576578</v>
@@ -1190,16 +1190,16 @@
         <v>251.2241675082893</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>11.19273982886594</v>
       </c>
     </row>
     <row r="9">
@@ -1288,28 +1288,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>156.1708888417951</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>52.10844059186253</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1357,7 +1357,7 @@
         <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>25.31590541686252</v>
       </c>
     </row>
     <row r="11">
@@ -1367,7 +1367,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>382.7338416634797</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C11" t="n">
         <v>365.2728917710076</v>
@@ -1436,7 +1436,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y11" t="n">
-        <v>386.2379386560536</v>
+        <v>386.2379386560531</v>
       </c>
     </row>
     <row r="12">
@@ -1534,19 +1534,19 @@
         <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1573,28 +1573,28 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>51.83731774862246</v>
+        <v>100.8744262095848</v>
       </c>
       <c r="S13" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
         <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -1625,7 +1625,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I14" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1655,7 +1655,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T14" t="n">
         <v>208.4827883385019</v>
@@ -1704,7 +1704,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I15" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1762,10 +1762,10 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
         <v>0</v>
@@ -1783,7 +1783,7 @@
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1816,7 +1816,7 @@
         <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U16" t="n">
         <v>286.2373523985773</v>
@@ -1825,13 +1825,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
-        <v>286.522998336591</v>
+        <v>241.9281560751232</v>
       </c>
       <c r="X16" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>46.82331221239765</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="17">
@@ -1999,10 +1999,10 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>145.8066325228115</v>
       </c>
       <c r="D19" t="n">
         <v>0</v>
@@ -2047,22 +2047,22 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S19" t="n">
-        <v>118.4898845065119</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U19" t="n">
         <v>286.2373523985773</v>
       </c>
       <c r="V19" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
         <v>225.7096553890372</v>
@@ -2132,7 +2132,7 @@
         <v>132.9503648051989</v>
       </c>
       <c r="T20" t="n">
-        <v>208.482788338502</v>
+        <v>208.4827883385019</v>
       </c>
       <c r="U20" t="n">
         <v>251.078595249801</v>
@@ -2236,13 +2236,13 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
         <v>0</v>
@@ -2254,10 +2254,10 @@
         <v>166.4935684633776</v>
       </c>
       <c r="H22" t="n">
-        <v>37.77589834984327</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>107.9892416131514</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2287,7 +2287,7 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T22" t="n">
         <v>221.5475610583892</v>
@@ -2305,7 +2305,7 @@
         <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -2476,25 +2476,25 @@
         <v>111.7000900522966</v>
       </c>
       <c r="C25" t="n">
-        <v>99.11493096898715</v>
+        <v>99.11493096898717</v>
       </c>
       <c r="D25" t="n">
-        <v>80.48358288857168</v>
+        <v>80.48358288857169</v>
       </c>
       <c r="E25" t="n">
-        <v>78.30207251692903</v>
+        <v>78.3020725169285</v>
       </c>
       <c r="F25" t="n">
-        <v>77.28915789329056</v>
+        <v>77.28915789329058</v>
       </c>
       <c r="G25" t="n">
-        <v>98.36167833373692</v>
+        <v>98.36167833373693</v>
       </c>
       <c r="H25" t="n">
-        <v>80.78193823789545</v>
+        <v>80.78193823789546</v>
       </c>
       <c r="I25" t="n">
-        <v>42.28735533463131</v>
+        <v>42.28735533463132</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2521,13 +2521,13 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>41.83246227415212</v>
+        <v>41.83246227415214</v>
       </c>
       <c r="S25" t="n">
         <v>129.7889198539626</v>
       </c>
       <c r="T25" t="n">
-        <v>153.4156709287486</v>
+        <v>153.4156709287489</v>
       </c>
       <c r="U25" t="n">
         <v>218.1054622689367</v>
@@ -2713,25 +2713,25 @@
         <v>111.7000900522966</v>
       </c>
       <c r="C28" t="n">
-        <v>99.11493096898715</v>
+        <v>99.11493096898717</v>
       </c>
       <c r="D28" t="n">
-        <v>80.48358288857168</v>
+        <v>80.48358288857169</v>
       </c>
       <c r="E28" t="n">
-        <v>78.30207251692849</v>
+        <v>78.3020725169285</v>
       </c>
       <c r="F28" t="n">
-        <v>77.28915789329056</v>
+        <v>77.28915789329058</v>
       </c>
       <c r="G28" t="n">
-        <v>98.36167833373692</v>
+        <v>98.36167833373693</v>
       </c>
       <c r="H28" t="n">
-        <v>80.78193823789545</v>
+        <v>80.78193823789546</v>
       </c>
       <c r="I28" t="n">
-        <v>42.28735533463131</v>
+        <v>42.28735533463132</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2758,7 +2758,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>41.83246227415212</v>
+        <v>41.83246227415232</v>
       </c>
       <c r="S28" t="n">
         <v>129.7889198539626</v>
@@ -2767,7 +2767,7 @@
         <v>153.4156709287486</v>
       </c>
       <c r="U28" t="n">
-        <v>218.1054622689372</v>
+        <v>218.1054622689367</v>
       </c>
       <c r="V28" t="n">
         <v>184.0057531941873</v>
@@ -2950,25 +2950,25 @@
         <v>111.7000900522966</v>
       </c>
       <c r="C31" t="n">
-        <v>99.11493096898715</v>
+        <v>99.11493096898717</v>
       </c>
       <c r="D31" t="n">
-        <v>80.48358288857168</v>
+        <v>80.48358288857169</v>
       </c>
       <c r="E31" t="n">
-        <v>78.30207251692849</v>
+        <v>78.3020725169285</v>
       </c>
       <c r="F31" t="n">
-        <v>77.28915789329056</v>
+        <v>77.28915789329058</v>
       </c>
       <c r="G31" t="n">
-        <v>98.3616783337369</v>
+        <v>98.36167833373692</v>
       </c>
       <c r="H31" t="n">
-        <v>80.78193823789545</v>
+        <v>80.78193823789543</v>
       </c>
       <c r="I31" t="n">
-        <v>42.28735533463131</v>
+        <v>42.28735533463133</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,7 +2995,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>41.83246227415212</v>
+        <v>41.83246227415214</v>
       </c>
       <c r="S31" t="n">
         <v>129.7889198539626</v>
@@ -3004,7 +3004,7 @@
         <v>153.4156709287486</v>
       </c>
       <c r="U31" t="n">
-        <v>218.1054622689372</v>
+        <v>218.1054622689368</v>
       </c>
       <c r="V31" t="n">
         <v>184.0057531941873</v>
@@ -3187,25 +3187,25 @@
         <v>111.7000900522966</v>
       </c>
       <c r="C34" t="n">
-        <v>99.11493096898717</v>
+        <v>99.11493096898718</v>
       </c>
       <c r="D34" t="n">
-        <v>80.48358288857169</v>
+        <v>80.4835828885717</v>
       </c>
       <c r="E34" t="n">
-        <v>78.3020725169285</v>
+        <v>78.30207251692852</v>
       </c>
       <c r="F34" t="n">
-        <v>77.28915789329058</v>
+        <v>77.28915789329059</v>
       </c>
       <c r="G34" t="n">
-        <v>98.36167833373692</v>
+        <v>98.36167833373693</v>
       </c>
       <c r="H34" t="n">
-        <v>80.78193823789546</v>
+        <v>80.78193823789547</v>
       </c>
       <c r="I34" t="n">
-        <v>42.28735533463133</v>
+        <v>42.28735533463134</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,10 +3232,10 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>41.83246227415214</v>
+        <v>41.83246227415215</v>
       </c>
       <c r="S34" t="n">
-        <v>129.7889198539625</v>
+        <v>129.7889198539626</v>
       </c>
       <c r="T34" t="n">
         <v>153.4156709287486</v>
@@ -3281,7 +3281,7 @@
         <v>411.9645167896915</v>
       </c>
       <c r="H35" t="n">
-        <v>293.083813594105</v>
+        <v>305.2872491113177</v>
       </c>
       <c r="I35" t="n">
         <v>81.77913505274077</v>
@@ -3320,7 +3320,7 @@
         <v>208.4827883385019</v>
       </c>
       <c r="U35" t="n">
-        <v>182.9467051201603</v>
+        <v>251.078595249801</v>
       </c>
       <c r="V35" t="n">
         <v>327.7522584701349</v>
@@ -3424,25 +3424,25 @@
         <v>111.7000900522966</v>
       </c>
       <c r="C37" t="n">
-        <v>99.11493096898711</v>
+        <v>99.11493096898715</v>
       </c>
       <c r="D37" t="n">
-        <v>80.48358288857163</v>
+        <v>80.48358288857168</v>
       </c>
       <c r="E37" t="n">
-        <v>78.30207251692845</v>
+        <v>78.30207251692849</v>
       </c>
       <c r="F37" t="n">
-        <v>77.28915789329052</v>
+        <v>77.28915789329056</v>
       </c>
       <c r="G37" t="n">
-        <v>98.36167833373686</v>
+        <v>98.3616783337369</v>
       </c>
       <c r="H37" t="n">
-        <v>80.7819382378954</v>
+        <v>80.78193823789545</v>
       </c>
       <c r="I37" t="n">
-        <v>42.28735533463127</v>
+        <v>42.28735533463108</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3469,16 +3469,16 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>41.83246227415208</v>
+        <v>41.83246227415212</v>
       </c>
       <c r="S37" t="n">
-        <v>129.7889198539625</v>
+        <v>129.7889198539627</v>
       </c>
       <c r="T37" t="n">
-        <v>153.4156709287485</v>
+        <v>153.4156709287486</v>
       </c>
       <c r="U37" t="n">
-        <v>218.1054622689377</v>
+        <v>218.1054622689375</v>
       </c>
       <c r="V37" t="n">
         <v>184.0057531941873</v>
@@ -3487,7 +3487,7 @@
         <v>218.3911082069503</v>
       </c>
       <c r="X37" t="n">
-        <v>157.5777652593964</v>
+        <v>157.5777652593965</v>
       </c>
       <c r="Y37" t="n">
         <v>150.4527632224541</v>
@@ -3515,13 +3515,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G38" t="n">
-        <v>410.9217256534538</v>
+        <v>411.9645167896915</v>
       </c>
       <c r="H38" t="n">
-        <v>294.6077643873205</v>
+        <v>305.2872491113177</v>
       </c>
       <c r="I38" t="n">
-        <v>41.57692977292595</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3551,13 +3551,13 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>109.1877617881758</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T38" t="n">
-        <v>203.9179701396201</v>
+        <v>208.4827883385019</v>
       </c>
       <c r="U38" t="n">
-        <v>250.995171958902</v>
+        <v>251.078595249801</v>
       </c>
       <c r="V38" t="n">
         <v>327.7522584701349</v>
@@ -3594,13 +3594,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G39" t="n">
-        <v>134.9994691657081</v>
+        <v>135.5574116118565</v>
       </c>
       <c r="H39" t="n">
-        <v>89.59687541851115</v>
+        <v>94.98542483262921</v>
       </c>
       <c r="I39" t="n">
-        <v>18.81721868247742</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -3627,16 +3627,16 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>0.1429098734098204</v>
+        <v>0</v>
       </c>
       <c r="S39" t="n">
-        <v>128.1435076414547</v>
+        <v>138.5070438670632</v>
       </c>
       <c r="T39" t="n">
-        <v>190.7165703189231</v>
+        <v>192.9654699154601</v>
       </c>
       <c r="U39" t="n">
-        <v>225.7871683969286</v>
+        <v>225.8238751368068</v>
       </c>
       <c r="V39" t="n">
         <v>232.8005871494253</v>
@@ -3658,28 +3658,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>132.8568435633447</v>
+        <v>111.7000900522966</v>
       </c>
       <c r="C40" t="n">
-        <v>120.2716844800353</v>
+        <v>99.11493096898718</v>
       </c>
       <c r="D40" t="n">
-        <v>101.6403363996198</v>
+        <v>80.4835828885717</v>
       </c>
       <c r="E40" t="n">
-        <v>99.45882602797661</v>
+        <v>78.30207251692852</v>
       </c>
       <c r="F40" t="n">
-        <v>98.44591140433869</v>
+        <v>77.28915789329059</v>
       </c>
       <c r="G40" t="n">
-        <v>119.0506716404357</v>
+        <v>98.36167833373695</v>
       </c>
       <c r="H40" t="n">
-        <v>97.77987829572822</v>
+        <v>80.78193823789547</v>
       </c>
       <c r="I40" t="n">
-        <v>49.37728379124554</v>
+        <v>42.28735533463133</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,28 +3706,28 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>41.95701605145478</v>
+        <v>41.83246227415214</v>
       </c>
       <c r="S40" t="n">
-        <v>142.7938887128493</v>
+        <v>129.7889198539627</v>
       </c>
       <c r="T40" t="n">
-        <v>172.5738126575766</v>
+        <v>153.4156709287486</v>
       </c>
       <c r="U40" t="n">
-        <v>239.2367015870204</v>
+        <v>218.1054622689365</v>
       </c>
       <c r="V40" t="n">
-        <v>205.1625067052354</v>
+        <v>184.0057531941873</v>
       </c>
       <c r="W40" t="n">
-        <v>239.5478617179984</v>
+        <v>218.3911082069503</v>
       </c>
       <c r="X40" t="n">
-        <v>178.7345187704446</v>
+        <v>157.5777652593965</v>
       </c>
       <c r="Y40" t="n">
-        <v>171.6095167335022</v>
+        <v>150.4527632224541</v>
       </c>
     </row>
     <row r="41">
@@ -3752,13 +3752,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G41" t="n">
-        <v>410.9217256534534</v>
+        <v>411.9645167896915</v>
       </c>
       <c r="H41" t="n">
-        <v>294.6077643873205</v>
+        <v>305.2872491113177</v>
       </c>
       <c r="I41" t="n">
-        <v>41.57692977292595</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3788,13 +3788,13 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>109.1877617881758</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T41" t="n">
-        <v>203.9179701396201</v>
+        <v>208.4827883385019</v>
       </c>
       <c r="U41" t="n">
-        <v>250.995171958902</v>
+        <v>251.078595249801</v>
       </c>
       <c r="V41" t="n">
         <v>327.7522584701349</v>
@@ -3831,13 +3831,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G42" t="n">
-        <v>134.9994691657081</v>
+        <v>135.5574116118565</v>
       </c>
       <c r="H42" t="n">
-        <v>89.59687541851115</v>
+        <v>94.98542483262921</v>
       </c>
       <c r="I42" t="n">
-        <v>18.81721868247742</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -3864,16 +3864,16 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>0.1429098734098397</v>
+        <v>0</v>
       </c>
       <c r="S42" t="n">
-        <v>128.1435076414547</v>
+        <v>138.5070438670632</v>
       </c>
       <c r="T42" t="n">
-        <v>190.7165703189231</v>
+        <v>192.9654699154601</v>
       </c>
       <c r="U42" t="n">
-        <v>225.7871683969286</v>
+        <v>225.8238751368068</v>
       </c>
       <c r="V42" t="n">
         <v>232.8005871494253</v>
@@ -3895,28 +3895,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>132.8568435633447</v>
+        <v>111.7000900522966</v>
       </c>
       <c r="C43" t="n">
-        <v>120.2716844800353</v>
+        <v>99.11493096898714</v>
       </c>
       <c r="D43" t="n">
-        <v>101.6403363996198</v>
+        <v>80.48358288857166</v>
       </c>
       <c r="E43" t="n">
-        <v>99.45882602797661</v>
+        <v>78.30207251692848</v>
       </c>
       <c r="F43" t="n">
-        <v>98.44591140433869</v>
+        <v>77.28915789329055</v>
       </c>
       <c r="G43" t="n">
-        <v>119.0506716404357</v>
+        <v>98.36167833373689</v>
       </c>
       <c r="H43" t="n">
-        <v>97.77987829572822</v>
+        <v>80.78193823789543</v>
       </c>
       <c r="I43" t="n">
-        <v>49.37728379124552</v>
+        <v>42.2873553346313</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,28 +3943,28 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>41.95701605145477</v>
+        <v>41.83246227415211</v>
       </c>
       <c r="S43" t="n">
-        <v>142.7938887128493</v>
+        <v>129.7889198539626</v>
       </c>
       <c r="T43" t="n">
-        <v>172.5738126575766</v>
+        <v>153.4156709287486</v>
       </c>
       <c r="U43" t="n">
-        <v>239.2367015870203</v>
+        <v>218.105462268937</v>
       </c>
       <c r="V43" t="n">
-        <v>205.1625067052354</v>
+        <v>184.0057531941873</v>
       </c>
       <c r="W43" t="n">
-        <v>239.5478617179984</v>
+        <v>218.3911082069503</v>
       </c>
       <c r="X43" t="n">
-        <v>178.7345187704446</v>
+        <v>157.5777652593965</v>
       </c>
       <c r="Y43" t="n">
-        <v>171.6095167335022</v>
+        <v>150.4527632224541</v>
       </c>
     </row>
     <row r="44">
@@ -3989,13 +3989,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G44" t="n">
-        <v>410.9217256534534</v>
+        <v>411.9645167896915</v>
       </c>
       <c r="H44" t="n">
-        <v>294.6077643873205</v>
+        <v>305.2872491113177</v>
       </c>
       <c r="I44" t="n">
-        <v>41.57692977292595</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4025,13 +4025,13 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>109.1877617881758</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T44" t="n">
-        <v>203.9179701396201</v>
+        <v>208.4827883385019</v>
       </c>
       <c r="U44" t="n">
-        <v>250.995171958902</v>
+        <v>251.078595249801</v>
       </c>
       <c r="V44" t="n">
         <v>327.7522584701349</v>
@@ -4068,13 +4068,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G45" t="n">
-        <v>134.9994691657081</v>
+        <v>135.5574116118565</v>
       </c>
       <c r="H45" t="n">
-        <v>89.59687541851115</v>
+        <v>94.98542483262921</v>
       </c>
       <c r="I45" t="n">
-        <v>18.81721868247742</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -4101,16 +4101,16 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>0.1429098734098397</v>
+        <v>0</v>
       </c>
       <c r="S45" t="n">
-        <v>128.1435076414547</v>
+        <v>138.5070438670632</v>
       </c>
       <c r="T45" t="n">
-        <v>190.7165703189231</v>
+        <v>192.9654699154601</v>
       </c>
       <c r="U45" t="n">
-        <v>225.7871683969286</v>
+        <v>225.8238751368068</v>
       </c>
       <c r="V45" t="n">
         <v>232.8005871494253</v>
@@ -4132,28 +4132,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>132.8568435633447</v>
+        <v>111.7000900522966</v>
       </c>
       <c r="C46" t="n">
-        <v>120.2716844800353</v>
+        <v>99.11493096898712</v>
       </c>
       <c r="D46" t="n">
-        <v>101.6403363996198</v>
+        <v>80.48358288857165</v>
       </c>
       <c r="E46" t="n">
-        <v>99.45882602797661</v>
+        <v>78.30207251692846</v>
       </c>
       <c r="F46" t="n">
-        <v>98.44591140433869</v>
+        <v>77.28915789329054</v>
       </c>
       <c r="G46" t="n">
-        <v>119.0506716404357</v>
+        <v>98.36167833373688</v>
       </c>
       <c r="H46" t="n">
-        <v>97.77987829572822</v>
+        <v>80.78193823789542</v>
       </c>
       <c r="I46" t="n">
-        <v>49.37728379124554</v>
+        <v>42.28735533463129</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,28 +4180,28 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>41.95701605145477</v>
+        <v>41.83246227415209</v>
       </c>
       <c r="S46" t="n">
-        <v>142.7938887128493</v>
+        <v>129.7889198539625</v>
       </c>
       <c r="T46" t="n">
-        <v>172.5738126575766</v>
+        <v>153.4156709287485</v>
       </c>
       <c r="U46" t="n">
-        <v>239.2367015870204</v>
+        <v>218.1054622689365</v>
       </c>
       <c r="V46" t="n">
-        <v>205.1625067052354</v>
+        <v>184.0057531941873</v>
       </c>
       <c r="W46" t="n">
-        <v>239.5478617179984</v>
+        <v>218.3911082069503</v>
       </c>
       <c r="X46" t="n">
-        <v>178.7345187704446</v>
+        <v>157.5777652593964</v>
       </c>
       <c r="Y46" t="n">
-        <v>171.6095167335022</v>
+        <v>150.4527632224541</v>
       </c>
     </row>
   </sheetData>
@@ -4304,25 +4304,25 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1246.904801777792</v>
+        <v>1383.690496290447</v>
       </c>
       <c r="C2" t="n">
-        <v>877.94228483738</v>
+        <v>1383.690496290447</v>
       </c>
       <c r="D2" t="n">
-        <v>877.94228483738</v>
+        <v>1025.424797683697</v>
       </c>
       <c r="E2" t="n">
-        <v>492.1540322391358</v>
+        <v>1025.424797683697</v>
       </c>
       <c r="F2" t="n">
-        <v>81.16812744952824</v>
+        <v>614.4388928940893</v>
       </c>
       <c r="G2" t="n">
-        <v>67.24472338811914</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="H2" t="n">
-        <v>67.24472338811914</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="I2" t="n">
         <v>53.94298182036445</v>
@@ -4331,16 +4331,16 @@
         <v>169.7108380533141</v>
       </c>
       <c r="K2" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733127</v>
       </c>
       <c r="L2" t="n">
-        <v>881.2824271224075</v>
+        <v>881.2824271224076</v>
       </c>
       <c r="M2" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N2" t="n">
-        <v>1836.345445977174</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O2" t="n">
         <v>2238.843319642689</v>
@@ -4355,25 +4355,25 @@
         <v>2697.149091018222</v>
       </c>
       <c r="S2" t="n">
-        <v>2697.149091018222</v>
+        <v>2696.993140898847</v>
       </c>
       <c r="T2" t="n">
-        <v>2697.149091018222</v>
+        <v>2478.35847387091</v>
       </c>
       <c r="U2" t="n">
-        <v>2697.149091018222</v>
+        <v>2478.35847387091</v>
       </c>
       <c r="V2" t="n">
-        <v>2697.149091018222</v>
+        <v>2147.295586527339</v>
       </c>
       <c r="W2" t="n">
-        <v>2344.380435748108</v>
+        <v>2147.295586527339</v>
       </c>
       <c r="X2" t="n">
-        <v>2023.643973817725</v>
+        <v>1773.829828266259</v>
       </c>
       <c r="Y2" t="n">
-        <v>1633.504641841914</v>
+        <v>1383.690496290447</v>
       </c>
     </row>
     <row r="3">
@@ -4383,19 +4383,19 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>988.497975217083</v>
+        <v>988.4979752170825</v>
       </c>
       <c r="C3" t="n">
-        <v>814.044945935956</v>
+        <v>814.0449459359555</v>
       </c>
       <c r="D3" t="n">
-        <v>665.1105362747046</v>
+        <v>665.1105362747041</v>
       </c>
       <c r="E3" t="n">
-        <v>505.873081269249</v>
+        <v>505.8730812692486</v>
       </c>
       <c r="F3" t="n">
-        <v>359.3385232961342</v>
+        <v>359.3385232961338</v>
       </c>
       <c r="G3" t="n">
         <v>221.4284102424003</v>
@@ -4407,25 +4407,25 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J3" t="n">
-        <v>53.94298182036445</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K3" t="n">
-        <v>309.190302261463</v>
+        <v>266.2060027641987</v>
       </c>
       <c r="L3" t="n">
-        <v>713.8062203571349</v>
+        <v>670.8219208598706</v>
       </c>
       <c r="M3" t="n">
-        <v>1237.953133915166</v>
+        <v>1194.968834417901</v>
       </c>
       <c r="N3" t="n">
-        <v>1791.679670014717</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O3" t="n">
-        <v>2231.815593035061</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P3" t="n">
-        <v>2568.06040664989</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q3" t="n">
         <v>2697.149091018222</v>
@@ -4446,10 +4446,10 @@
         <v>1826.562467935839</v>
       </c>
       <c r="W3" t="n">
-        <v>1572.325111207638</v>
+        <v>1572.325111207637</v>
       </c>
       <c r="X3" t="n">
-        <v>1364.473611002105</v>
+        <v>1364.473611002104</v>
       </c>
       <c r="Y3" t="n">
         <v>1156.713312237151</v>
@@ -4462,76 +4462,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>53.94298182036445</v>
+        <v>2255.552480504987</v>
       </c>
       <c r="C4" t="n">
-        <v>53.94298182036445</v>
+        <v>2255.552480504987</v>
       </c>
       <c r="D4" t="n">
-        <v>53.94298182036445</v>
+        <v>2255.552480504987</v>
       </c>
       <c r="E4" t="n">
-        <v>53.94298182036445</v>
+        <v>2255.552480504987</v>
       </c>
       <c r="F4" t="n">
-        <v>53.94298182036445</v>
+        <v>2108.662533007076</v>
       </c>
       <c r="G4" t="n">
-        <v>53.94298182036445</v>
+        <v>2108.662533007076</v>
       </c>
       <c r="H4" t="n">
-        <v>53.94298182036445</v>
+        <v>2022.963088632153</v>
       </c>
       <c r="I4" t="n">
-        <v>53.94298182036445</v>
+        <v>2022.963088632153</v>
       </c>
       <c r="J4" t="n">
-        <v>53.94298182036445</v>
+        <v>2022.963088632153</v>
       </c>
       <c r="K4" t="n">
-        <v>110.2451748866326</v>
+        <v>2079.265281698421</v>
       </c>
       <c r="L4" t="n">
-        <v>237.819032447791</v>
+        <v>2206.839139259579</v>
       </c>
       <c r="M4" t="n">
-        <v>382.7169011658209</v>
+        <v>2351.737007977609</v>
       </c>
       <c r="N4" t="n">
-        <v>529.6040388502499</v>
+        <v>2498.624145662038</v>
       </c>
       <c r="O4" t="n">
-        <v>649.2617893594901</v>
+        <v>2618.281896171278</v>
       </c>
       <c r="P4" t="n">
-        <v>728.1289842064342</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="Q4" t="n">
-        <v>728.1289842064342</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R4" t="n">
-        <v>728.1289842064342</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S4" t="n">
-        <v>513.8405610245969</v>
+        <v>2482.860667836385</v>
       </c>
       <c r="T4" t="n">
-        <v>286.5323736931987</v>
+        <v>2255.552480504987</v>
       </c>
       <c r="U4" t="n">
-        <v>235.5914466506042</v>
+        <v>2255.552480504987</v>
       </c>
       <c r="V4" t="n">
-        <v>235.5914466506042</v>
+        <v>2255.552480504987</v>
       </c>
       <c r="W4" t="n">
-        <v>235.5914466506042</v>
+        <v>2255.552480504987</v>
       </c>
       <c r="X4" t="n">
-        <v>235.5914466506042</v>
+        <v>2255.552480504987</v>
       </c>
       <c r="Y4" t="n">
-        <v>235.5914466506042</v>
+        <v>2255.552480504987</v>
       </c>
     </row>
     <row r="5">
@@ -4541,22 +4541,22 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1251.855211652197</v>
+        <v>1040.216121848822</v>
       </c>
       <c r="C5" t="n">
-        <v>882.8926947117852</v>
+        <v>671.2536049084106</v>
       </c>
       <c r="D5" t="n">
-        <v>882.8926947117852</v>
+        <v>671.2536049084106</v>
       </c>
       <c r="E5" t="n">
-        <v>882.8926947117852</v>
+        <v>671.2536049084106</v>
       </c>
       <c r="F5" t="n">
-        <v>471.9067899221776</v>
+        <v>260.267700118803</v>
       </c>
       <c r="G5" t="n">
-        <v>53.94298182036445</v>
+        <v>246.3442960573939</v>
       </c>
       <c r="H5" t="n">
         <v>53.94298182036445</v>
@@ -4565,13 +4565,13 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J5" t="n">
-        <v>169.7108380533142</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K5" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733129</v>
       </c>
       <c r="L5" t="n">
-        <v>881.2824271224079</v>
+        <v>881.2824271224077</v>
       </c>
       <c r="M5" t="n">
         <v>1362.238747280443</v>
@@ -4589,28 +4589,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R5" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S5" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="T5" t="n">
-        <v>2697.149091018222</v>
+        <v>2423.485734520778</v>
       </c>
       <c r="U5" t="n">
-        <v>2443.387305656314</v>
+        <v>2169.72394915887</v>
       </c>
       <c r="V5" t="n">
-        <v>2443.387305656314</v>
+        <v>2169.72394915887</v>
       </c>
       <c r="W5" t="n">
-        <v>2090.6186503862</v>
+        <v>1816.955293888756</v>
       </c>
       <c r="X5" t="n">
-        <v>2028.59438369213</v>
+        <v>1816.955293888756</v>
       </c>
       <c r="Y5" t="n">
-        <v>1638.455051716319</v>
+        <v>1426.815961912944</v>
       </c>
     </row>
     <row r="6">
@@ -4650,16 +4650,16 @@
         <v>384.4474646615928</v>
       </c>
       <c r="L6" t="n">
-        <v>670.8219208598713</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M6" t="n">
-        <v>1194.968834417902</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N6" t="n">
-        <v>1748.695370517453</v>
+        <v>1866.936832414847</v>
       </c>
       <c r="O6" t="n">
-        <v>2188.831293537797</v>
+        <v>2307.072755435191</v>
       </c>
       <c r="P6" t="n">
         <v>2525.076107152626</v>
@@ -4699,25 +4699,25 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>438.7118141694736</v>
+        <v>97.69838933464726</v>
       </c>
       <c r="C7" t="n">
-        <v>438.7118141694736</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="D7" t="n">
-        <v>438.7118141694736</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="E7" t="n">
-        <v>438.7118141694736</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F7" t="n">
-        <v>291.8218666715633</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G7" t="n">
-        <v>190.2718927217162</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H7" t="n">
-        <v>190.2718927217162</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I7" t="n">
         <v>53.94298182036445</v>
@@ -4729,46 +4729,46 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L7" t="n">
-        <v>237.819032447791</v>
+        <v>237.8190324477911</v>
       </c>
       <c r="M7" t="n">
-        <v>382.7169011658209</v>
+        <v>382.716901165821</v>
       </c>
       <c r="N7" t="n">
-        <v>529.6040388502499</v>
+        <v>529.6040388502502</v>
       </c>
       <c r="O7" t="n">
-        <v>649.2617893594901</v>
+        <v>649.2617893594903</v>
       </c>
       <c r="P7" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Q7" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="R7" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="S7" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="T7" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="U7" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="V7" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="W7" t="n">
-        <v>438.7118141694736</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="X7" t="n">
-        <v>438.7118141694736</v>
+        <v>500.1394333084171</v>
       </c>
       <c r="Y7" t="n">
-        <v>438.7118141694736</v>
+        <v>279.346854164887</v>
       </c>
     </row>
     <row r="8">
@@ -4778,76 +4778,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1129.234822142136</v>
+        <v>924.4350995402963</v>
       </c>
       <c r="C8" t="n">
-        <v>760.2723052017247</v>
+        <v>555.4725825998845</v>
       </c>
       <c r="D8" t="n">
-        <v>402.0066065949742</v>
+        <v>555.4725825998845</v>
       </c>
       <c r="E8" t="n">
-        <v>402.0066065949742</v>
+        <v>555.4725825998845</v>
       </c>
       <c r="F8" t="n">
-        <v>395.0611058457707</v>
+        <v>548.527081850681</v>
       </c>
       <c r="G8" t="n">
-        <v>381.1377017843616</v>
+        <v>534.603677789272</v>
       </c>
       <c r="H8" t="n">
-        <v>53.94298182036445</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="I8" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J8" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533142</v>
       </c>
       <c r="K8" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733127</v>
       </c>
       <c r="L8" t="n">
-        <v>881.2824271224075</v>
+        <v>881.2824271224076</v>
       </c>
       <c r="M8" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N8" t="n">
-        <v>1836.345445977174</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O8" t="n">
         <v>2238.843319642689</v>
       </c>
       <c r="P8" t="n">
-        <v>2544.691559791252</v>
+        <v>2544.691559791253</v>
       </c>
       <c r="Q8" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R8" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="S8" t="n">
-        <v>2696.299252112444</v>
+        <v>2520.971603332393</v>
       </c>
       <c r="T8" t="n">
-        <v>2477.664585084507</v>
+        <v>2302.336936304456</v>
       </c>
       <c r="U8" t="n">
-        <v>2223.902799722599</v>
+        <v>2048.575150942547</v>
       </c>
       <c r="V8" t="n">
-        <v>1892.839912379028</v>
+        <v>2048.575150942547</v>
       </c>
       <c r="W8" t="n">
-        <v>1892.839912379028</v>
+        <v>1695.806495672433</v>
       </c>
       <c r="X8" t="n">
-        <v>1519.374154117948</v>
+        <v>1322.340737411353</v>
       </c>
       <c r="Y8" t="n">
-        <v>1129.234822142136</v>
+        <v>1311.034939604418</v>
       </c>
     </row>
     <row r="9">
@@ -4878,28 +4878,28 @@
         <v>115.9856282673424</v>
       </c>
       <c r="I9" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J9" t="n">
-        <v>129.2001442204943</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="K9" t="n">
-        <v>384.4474646615928</v>
+        <v>309.190302261463</v>
       </c>
       <c r="L9" t="n">
-        <v>670.8219208598713</v>
+        <v>713.8062203571349</v>
       </c>
       <c r="M9" t="n">
-        <v>1194.968834417902</v>
+        <v>1237.953133915166</v>
       </c>
       <c r="N9" t="n">
-        <v>1748.695370517453</v>
+        <v>1791.679670014717</v>
       </c>
       <c r="O9" t="n">
-        <v>2188.831293537797</v>
+        <v>2231.815593035061</v>
       </c>
       <c r="P9" t="n">
-        <v>2525.076107152626</v>
+        <v>2568.06040664989</v>
       </c>
       <c r="Q9" t="n">
         <v>2697.149091018223</v>
@@ -4936,76 +4936,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>728.1289842064342</v>
+        <v>520.9088977430002</v>
       </c>
       <c r="C10" t="n">
-        <v>728.1289842064342</v>
+        <v>351.9727148150933</v>
       </c>
       <c r="D10" t="n">
-        <v>728.1289842064342</v>
+        <v>201.8560754027576</v>
       </c>
       <c r="E10" t="n">
-        <v>580.2158906240411</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="F10" t="n">
-        <v>433.3259431261307</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="G10" t="n">
-        <v>264.3261428644631</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="H10" t="n">
-        <v>106.5777702969933</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="I10" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J10" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="K10" t="n">
         <v>110.2451748866326</v>
       </c>
       <c r="L10" t="n">
-        <v>237.819032447791</v>
+        <v>237.8190324477911</v>
       </c>
       <c r="M10" t="n">
-        <v>382.7169011658209</v>
+        <v>382.716901165821</v>
       </c>
       <c r="N10" t="n">
-        <v>529.6040388502499</v>
+        <v>529.6040388502502</v>
       </c>
       <c r="O10" t="n">
-        <v>649.2617893594901</v>
+        <v>649.2617893594903</v>
       </c>
       <c r="P10" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Q10" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="R10" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="S10" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="T10" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="U10" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="V10" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="W10" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="X10" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Y10" t="n">
-        <v>728.1289842064342</v>
+        <v>702.55736257324</v>
       </c>
     </row>
     <row r="11">
@@ -5039,10 +5039,10 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J11" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K11" t="n">
-        <v>889.2841917514074</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L11" t="n">
         <v>1590.888347795206</v>
@@ -5057,7 +5057,7 @@
         <v>3889.732883643323</v>
       </c>
       <c r="P11" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q11" t="n">
         <v>4801.62743720783</v>
@@ -5066,25 +5066,25 @@
         <v>4860.854573014292</v>
       </c>
       <c r="S11" t="n">
-        <v>4726.561275231263</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T11" t="n">
-        <v>4515.972600141867</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U11" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V11" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W11" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X11" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y11" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="12">
@@ -5173,25 +5173,25 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>844.1942894808744</v>
+        <v>413.0432218861031</v>
       </c>
       <c r="C13" t="n">
-        <v>675.2581065529675</v>
+        <v>244.1070389581962</v>
       </c>
       <c r="D13" t="n">
-        <v>675.2581065529675</v>
+        <v>244.1070389581962</v>
       </c>
       <c r="E13" t="n">
-        <v>527.3450129705744</v>
+        <v>244.1070389581962</v>
       </c>
       <c r="F13" t="n">
-        <v>527.3450129705744</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G13" t="n">
-        <v>359.1696912903951</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H13" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I13" t="n">
         <v>97.21709146028584</v>
@@ -5200,49 +5200,49 @@
         <v>109.5997839241957</v>
       </c>
       <c r="K13" t="n">
-        <v>259.7851881688072</v>
+        <v>259.7851881688056</v>
       </c>
       <c r="L13" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799348</v>
       </c>
       <c r="M13" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471176</v>
       </c>
       <c r="N13" t="n">
-        <v>1049.608084974667</v>
+        <v>1049.608084974665</v>
       </c>
       <c r="O13" t="n">
-        <v>1283.483062980064</v>
+        <v>1283.483062980062</v>
       </c>
       <c r="P13" t="n">
-        <v>1460.082827585746</v>
+        <v>1460.082827585745</v>
       </c>
       <c r="Q13" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557901</v>
       </c>
       <c r="R13" t="n">
-        <v>1446.555343539092</v>
+        <v>1397.022910750239</v>
       </c>
       <c r="S13" t="n">
-        <v>1246.635333454644</v>
+        <v>1397.022910750239</v>
       </c>
       <c r="T13" t="n">
-        <v>1246.635333454644</v>
+        <v>1173.237495539745</v>
       </c>
       <c r="U13" t="n">
-        <v>1246.635333454644</v>
+        <v>884.1088567533034</v>
       </c>
       <c r="V13" t="n">
-        <v>1246.635333454644</v>
+        <v>884.1088567533034</v>
       </c>
       <c r="W13" t="n">
-        <v>1246.635333454644</v>
+        <v>594.6916867163428</v>
       </c>
       <c r="X13" t="n">
-        <v>1246.635333454644</v>
+        <v>594.6916867163428</v>
       </c>
       <c r="Y13" t="n">
-        <v>1025.842754311114</v>
+        <v>594.6916867163428</v>
       </c>
     </row>
     <row r="14">
@@ -5267,19 +5267,19 @@
         <v>904.319011615589</v>
       </c>
       <c r="G14" t="n">
-        <v>488.1932370805469</v>
+        <v>488.1932370805466</v>
       </c>
       <c r="H14" t="n">
-        <v>179.8222783822463</v>
+        <v>179.822278382246</v>
       </c>
       <c r="I14" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028562</v>
       </c>
       <c r="J14" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823783</v>
       </c>
       <c r="K14" t="n">
-        <v>889.2841917514074</v>
+        <v>889.2841917514079</v>
       </c>
       <c r="L14" t="n">
         <v>1590.888347795206</v>
@@ -5294,7 +5294,7 @@
         <v>3889.732883643323</v>
       </c>
       <c r="P14" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q14" t="n">
         <v>4801.62743720783</v>
@@ -5355,22 +5355,22 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J15" t="n">
-        <v>263.5382936126482</v>
+        <v>138.7081686256435</v>
       </c>
       <c r="K15" t="n">
-        <v>674.4285624571609</v>
+        <v>549.5984374701561</v>
       </c>
       <c r="L15" t="n">
-        <v>921.1936903636249</v>
+        <v>891.4406401619856</v>
       </c>
       <c r="M15" t="n">
-        <v>1228.513823643586</v>
+        <v>1198.760773441947</v>
       </c>
       <c r="N15" t="n">
-        <v>1558.376451307619</v>
+        <v>1528.62340110598</v>
       </c>
       <c r="O15" t="n">
-        <v>1837.916516526316</v>
+        <v>1808.163466324677</v>
       </c>
       <c r="P15" t="n">
         <v>2328.464088060424</v>
@@ -5410,25 +5410,25 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>208.7516828383384</v>
+        <v>266.1532743881928</v>
       </c>
       <c r="C16" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D16" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E16" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F16" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G16" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H16" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I16" t="n">
         <v>97.21709146028584</v>
@@ -5464,22 +5464,22 @@
         <v>1498.916270557902</v>
       </c>
       <c r="T16" t="n">
-        <v>1498.916270557902</v>
+        <v>1275.130855347408</v>
       </c>
       <c r="U16" t="n">
-        <v>1209.787631771461</v>
+        <v>986.0022165609664</v>
       </c>
       <c r="V16" t="n">
-        <v>955.1031435655738</v>
+        <v>731.3177283550796</v>
       </c>
       <c r="W16" t="n">
-        <v>665.6859735286132</v>
+        <v>486.9458535317228</v>
       </c>
       <c r="X16" t="n">
-        <v>437.6964226305959</v>
+        <v>486.9458535317228</v>
       </c>
       <c r="Y16" t="n">
-        <v>390.400147668578</v>
+        <v>266.1532743881928</v>
       </c>
     </row>
     <row r="17">
@@ -5510,13 +5510,13 @@
         <v>179.8222783822458</v>
       </c>
       <c r="I17" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028562</v>
       </c>
       <c r="J17" t="n">
         <v>365.8813331823785</v>
       </c>
       <c r="K17" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514074</v>
       </c>
       <c r="L17" t="n">
         <v>1590.888347795206</v>
@@ -5531,7 +5531,7 @@
         <v>3889.732883643323</v>
       </c>
       <c r="P17" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q17" t="n">
         <v>4801.62743720783</v>
@@ -5598,19 +5598,19 @@
         <v>674.4285624571609</v>
       </c>
       <c r="L18" t="n">
-        <v>1024.771599890052</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M18" t="n">
-        <v>1332.091733170013</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N18" t="n">
-        <v>1661.954360834046</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O18" t="n">
-        <v>2331.418122136705</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P18" t="n">
-        <v>2536.440602918915</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q18" t="n">
         <v>2623.573505376138</v>
@@ -5647,7 +5647,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>97.21709146028584</v>
+        <v>244.4965182510046</v>
       </c>
       <c r="C19" t="n">
         <v>97.21709146028584</v>
@@ -5695,28 +5695,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R19" t="n">
-        <v>1498.916270557902</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S19" t="n">
-        <v>1379.229518531123</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="T19" t="n">
-        <v>1379.229518531123</v>
+        <v>1164.055751909234</v>
       </c>
       <c r="U19" t="n">
-        <v>1090.100879744681</v>
+        <v>874.9271131227918</v>
       </c>
       <c r="V19" t="n">
-        <v>835.416391538794</v>
+        <v>874.9271131227918</v>
       </c>
       <c r="W19" t="n">
-        <v>545.9992215018333</v>
+        <v>874.9271131227918</v>
       </c>
       <c r="X19" t="n">
-        <v>318.0096706038159</v>
+        <v>646.9375622247744</v>
       </c>
       <c r="Y19" t="n">
-        <v>97.21709146028584</v>
+        <v>426.1449830812443</v>
       </c>
     </row>
     <row r="20">
@@ -5726,7 +5726,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C20" t="n">
         <v>2059.358867610191</v>
@@ -5735,22 +5735,22 @@
         <v>1701.093169003441</v>
       </c>
       <c r="E20" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F20" t="n">
-        <v>904.3190116155888</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G20" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805466</v>
       </c>
       <c r="H20" t="n">
-        <v>179.8222783822462</v>
+        <v>179.822278382246</v>
       </c>
       <c r="I20" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028562</v>
       </c>
       <c r="J20" t="n">
-        <v>365.8813331823786</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K20" t="n">
         <v>889.2841917514088</v>
@@ -5762,7 +5762,7 @@
         <v>2388.164701515097</v>
       </c>
       <c r="N20" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O20" t="n">
         <v>3889.732883643323</v>
@@ -5771,7 +5771,7 @@
         <v>4454.632848899127</v>
       </c>
       <c r="Q20" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R20" t="n">
         <v>4860.854573014292</v>
@@ -5786,16 +5786,16 @@
         <v>4262.357857465301</v>
       </c>
       <c r="V20" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W20" t="n">
         <v>3578.526314851616</v>
       </c>
       <c r="X20" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y20" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="21">
@@ -5829,28 +5829,28 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J21" t="n">
-        <v>138.7081686256434</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K21" t="n">
-        <v>287.7778528277033</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L21" t="n">
-        <v>901.674922584592</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M21" t="n">
-        <v>1208.995055864553</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N21" t="n">
-        <v>1538.857683528586</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O21" t="n">
-        <v>2208.321444831246</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P21" t="n">
-        <v>2536.440602918915</v>
+        <v>2317.834075963124</v>
       </c>
       <c r="Q21" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R21" t="n">
         <v>2623.573505376138</v>
@@ -5884,25 +5884,25 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>472.4860691490219</v>
+        <v>675.007103038344</v>
       </c>
       <c r="C22" t="n">
-        <v>303.549886221115</v>
+        <v>675.007103038344</v>
       </c>
       <c r="D22" t="n">
-        <v>303.549886221115</v>
+        <v>524.8904636260082</v>
       </c>
       <c r="E22" t="n">
-        <v>303.549886221115</v>
+        <v>524.8904636260082</v>
       </c>
       <c r="F22" t="n">
-        <v>303.549886221115</v>
+        <v>524.8904636260082</v>
       </c>
       <c r="G22" t="n">
-        <v>135.3745645409356</v>
+        <v>356.7151419458288</v>
       </c>
       <c r="H22" t="n">
-        <v>97.21709146028584</v>
+        <v>206.2971334937721</v>
       </c>
       <c r="I22" t="n">
         <v>97.21709146028584</v>
@@ -5935,25 +5935,25 @@
         <v>1387.841167119728</v>
       </c>
       <c r="S22" t="n">
-        <v>1387.841167119728</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="T22" t="n">
-        <v>1164.055751909234</v>
+        <v>964.1357418247858</v>
       </c>
       <c r="U22" t="n">
-        <v>874.9271131227918</v>
+        <v>675.007103038344</v>
       </c>
       <c r="V22" t="n">
-        <v>874.9271131227918</v>
+        <v>675.007103038344</v>
       </c>
       <c r="W22" t="n">
-        <v>874.9271131227918</v>
+        <v>675.007103038344</v>
       </c>
       <c r="X22" t="n">
-        <v>874.9271131227918</v>
+        <v>675.007103038344</v>
       </c>
       <c r="Y22" t="n">
-        <v>654.1345339792616</v>
+        <v>675.007103038344</v>
       </c>
     </row>
     <row r="23">
@@ -5966,52 +5966,52 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C23" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D23" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E23" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F23" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G23" t="n">
-        <v>488.1932370805466</v>
+        <v>488.1932370805471</v>
       </c>
       <c r="H23" t="n">
-        <v>179.822278382246</v>
+        <v>179.8222783822466</v>
       </c>
       <c r="I23" t="n">
-        <v>97.21709146028562</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J23" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K23" t="n">
         <v>889.2841917514083</v>
       </c>
       <c r="L23" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M23" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515098</v>
       </c>
       <c r="N23" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619129</v>
       </c>
       <c r="O23" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P23" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q23" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R23" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S23" t="n">
         <v>4726.561275231264</v>
@@ -6020,16 +6020,16 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U23" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V23" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W23" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X23" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y23" t="n">
         <v>2814.921224614724</v>
@@ -6063,7 +6063,7 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I24" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J24" t="n">
         <v>263.5382936126482</v>
@@ -6072,19 +6072,19 @@
         <v>674.4285624571609</v>
       </c>
       <c r="L24" t="n">
-        <v>1206.718781115524</v>
+        <v>1288.32563221405</v>
       </c>
       <c r="M24" t="n">
-        <v>1514.038914395485</v>
+        <v>1722.015429253975</v>
       </c>
       <c r="N24" t="n">
-        <v>1843.901542059518</v>
+        <v>2051.878056918008</v>
       </c>
       <c r="O24" t="n">
-        <v>2123.441607278215</v>
+        <v>2331.418122136705</v>
       </c>
       <c r="P24" t="n">
-        <v>2328.464088060424</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q24" t="n">
         <v>2623.573505376138</v>
@@ -6121,16 +6121,16 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>659.4602391108334</v>
+        <v>659.4602391108331</v>
       </c>
       <c r="C25" t="n">
-        <v>559.3441472229676</v>
+        <v>559.3441472229672</v>
       </c>
       <c r="D25" t="n">
-        <v>478.047598850673</v>
+        <v>478.0475988506726</v>
       </c>
       <c r="E25" t="n">
-        <v>398.9545963083204</v>
+        <v>398.9545963083205</v>
       </c>
       <c r="F25" t="n">
         <v>320.8847398504512</v>
@@ -6142,7 +6142,7 @@
         <v>139.9315917982973</v>
       </c>
       <c r="I25" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J25" t="n">
         <v>177.05035515254</v>
@@ -6151,7 +6151,7 @@
         <v>394.6863306254957</v>
       </c>
       <c r="L25" t="n">
-        <v>709.8489468649691</v>
+        <v>709.8489468649692</v>
       </c>
       <c r="M25" t="n">
         <v>1048.866260860496</v>
@@ -6181,16 +6181,16 @@
         <v>1489.892037025262</v>
       </c>
       <c r="V25" t="n">
-        <v>1304.027639859417</v>
+        <v>1304.027639859416</v>
       </c>
       <c r="W25" t="n">
         <v>1083.430560862497</v>
       </c>
       <c r="X25" t="n">
-        <v>924.261101004521</v>
+        <v>924.2611010045207</v>
       </c>
       <c r="Y25" t="n">
-        <v>772.288612901032</v>
+        <v>772.2886129010317</v>
       </c>
     </row>
     <row r="26">
@@ -6227,10 +6227,10 @@
         <v>365.8813331823785</v>
       </c>
       <c r="K26" t="n">
-        <v>889.2841917514088</v>
+        <v>889.2841917514074</v>
       </c>
       <c r="L26" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M26" t="n">
         <v>2388.164701515097</v>
@@ -6242,10 +6242,10 @@
         <v>3889.732883643323</v>
       </c>
       <c r="P26" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q26" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R26" t="n">
         <v>4860.854573014292</v>
@@ -6303,28 +6303,28 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J27" t="n">
-        <v>138.7081686256434</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K27" t="n">
-        <v>549.5984374701561</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L27" t="n">
-        <v>1163.495507227045</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M27" t="n">
-        <v>1470.815640507006</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N27" t="n">
-        <v>1800.678268171039</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O27" t="n">
-        <v>2080.218333389736</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P27" t="n">
-        <v>2536.440602918915</v>
+        <v>2317.834075963124</v>
       </c>
       <c r="Q27" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R27" t="n">
         <v>2623.573505376138</v>
@@ -6358,16 +6358,16 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>659.4602391108328</v>
+        <v>659.4602391108331</v>
       </c>
       <c r="C28" t="n">
-        <v>559.3441472229671</v>
+        <v>559.3441472229672</v>
       </c>
       <c r="D28" t="n">
-        <v>478.0475988506724</v>
+        <v>478.0475988506726</v>
       </c>
       <c r="E28" t="n">
-        <v>398.9545963083204</v>
+        <v>398.9545963083205</v>
       </c>
       <c r="F28" t="n">
         <v>320.8847398504512</v>
@@ -6424,10 +6424,10 @@
         <v>1083.430560862497</v>
       </c>
       <c r="X28" t="n">
-        <v>924.2611010045205</v>
+        <v>924.2611010045207</v>
       </c>
       <c r="Y28" t="n">
-        <v>772.2886129010315</v>
+        <v>772.2886129010317</v>
       </c>
     </row>
     <row r="29">
@@ -6455,7 +6455,7 @@
         <v>488.1932370805471</v>
       </c>
       <c r="H29" t="n">
-        <v>179.8222783822466</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I29" t="n">
         <v>97.21709146028587</v>
@@ -6546,22 +6546,22 @@
         <v>674.4285624571609</v>
       </c>
       <c r="L30" t="n">
-        <v>1206.718781115524</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M30" t="n">
-        <v>1514.038914395485</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N30" t="n">
-        <v>1843.901542059518</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O30" t="n">
-        <v>2123.441607278215</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P30" t="n">
-        <v>2328.464088060424</v>
+        <v>2317.834075963124</v>
       </c>
       <c r="Q30" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R30" t="n">
         <v>2623.573505376138</v>
@@ -6595,16 +6595,16 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>659.4602391108328</v>
+        <v>659.4602391108331</v>
       </c>
       <c r="C31" t="n">
-        <v>559.3441472229671</v>
+        <v>559.3441472229672</v>
       </c>
       <c r="D31" t="n">
-        <v>478.0475988506724</v>
+        <v>478.0475988506726</v>
       </c>
       <c r="E31" t="n">
-        <v>398.9545963083204</v>
+        <v>398.9545963083206</v>
       </c>
       <c r="F31" t="n">
         <v>320.8847398504512</v>
@@ -6640,7 +6640,7 @@
         <v>1932.236826184156</v>
       </c>
       <c r="Q31" t="n">
-        <v>2038.520840384657</v>
+        <v>2038.520840384656</v>
       </c>
       <c r="R31" t="n">
         <v>1996.265827986523</v>
@@ -6661,10 +6661,10 @@
         <v>1083.430560862497</v>
       </c>
       <c r="X31" t="n">
-        <v>924.2611010045205</v>
+        <v>924.2611010045207</v>
       </c>
       <c r="Y31" t="n">
-        <v>772.2886129010315</v>
+        <v>772.2886129010317</v>
       </c>
     </row>
     <row r="32">
@@ -6707,19 +6707,19 @@
         <v>1590.888347795206</v>
       </c>
       <c r="M32" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515098</v>
       </c>
       <c r="N32" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619129</v>
       </c>
       <c r="O32" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P32" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q32" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R32" t="n">
         <v>4860.854573014293</v>
@@ -6795,10 +6795,10 @@
         <v>1837.916516526316</v>
       </c>
       <c r="P33" t="n">
-        <v>2328.464088060424</v>
+        <v>2317.834075963124</v>
       </c>
       <c r="Q33" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R33" t="n">
         <v>2623.573505376138</v>
@@ -6832,13 +6832,13 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>659.4602391108332</v>
+        <v>659.4602391108333</v>
       </c>
       <c r="C34" t="n">
-        <v>559.3441472229673</v>
+        <v>559.3441472229674</v>
       </c>
       <c r="D34" t="n">
-        <v>478.0475988506727</v>
+        <v>478.0475988506728</v>
       </c>
       <c r="E34" t="n">
         <v>398.9545963083207</v>
@@ -6847,7 +6847,7 @@
         <v>320.8847398504514</v>
       </c>
       <c r="G34" t="n">
-        <v>221.529509210313</v>
+        <v>221.5295092103129</v>
       </c>
       <c r="H34" t="n">
         <v>139.9315917982973</v>
@@ -6856,13 +6856,13 @@
         <v>97.21709146028587</v>
       </c>
       <c r="J34" t="n">
-        <v>177.0503551525402</v>
+        <v>177.05035515254</v>
       </c>
       <c r="K34" t="n">
-        <v>394.6863306254959</v>
+        <v>394.6863306254957</v>
       </c>
       <c r="L34" t="n">
-        <v>709.8489468649693</v>
+        <v>709.8489468649691</v>
       </c>
       <c r="M34" t="n">
         <v>1048.866260860496</v>
@@ -6889,7 +6889,7 @@
         <v>1710.200584771663</v>
       </c>
       <c r="U34" t="n">
-        <v>1489.892037025263</v>
+        <v>1489.892037025262</v>
       </c>
       <c r="V34" t="n">
         <v>1304.027639859417</v>
@@ -6901,7 +6901,7 @@
         <v>924.2611010045209</v>
       </c>
       <c r="Y34" t="n">
-        <v>772.2886129010318</v>
+        <v>772.2886129010319</v>
       </c>
     </row>
     <row r="35">
@@ -6911,76 +6911,76 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2414.338624996072</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C35" t="n">
-        <v>2045.376108055661</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D35" t="n">
-        <v>1687.11040944891</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E35" t="n">
-        <v>1301.322156850666</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F35" t="n">
-        <v>890.3362520610583</v>
+        <v>904.3190116155893</v>
       </c>
       <c r="G35" t="n">
-        <v>474.2104775260164</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H35" t="n">
-        <v>178.1662213703548</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I35" t="n">
-        <v>95.56103444839442</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J35" t="n">
-        <v>364.2252761704872</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K35" t="n">
-        <v>887.6281347395168</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L35" t="n">
-        <v>1589.232290783315</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M35" t="n">
-        <v>2386.508644503206</v>
+        <v>2388.164701515098</v>
       </c>
       <c r="N35" t="n">
-        <v>3160.134107831019</v>
+        <v>3183.709822619129</v>
       </c>
       <c r="O35" t="n">
-        <v>3866.157168855215</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P35" t="n">
-        <v>4431.057134111018</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q35" t="n">
-        <v>4778.051722419721</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R35" t="n">
-        <v>4778.051722419721</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S35" t="n">
-        <v>4643.758424636692</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T35" t="n">
-        <v>4433.169749547296</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U35" t="n">
-        <v>4248.375097910771</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V35" t="n">
-        <v>3917.3122105672</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W35" t="n">
-        <v>3564.543555297086</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X35" t="n">
-        <v>3191.077797036006</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y35" t="n">
-        <v>2800.938465060194</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="36">
@@ -6990,76 +6990,76 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>985.7752020406868</v>
+        <v>987.4312590525782</v>
       </c>
       <c r="C36" t="n">
-        <v>811.3221727595599</v>
+        <v>812.9782297714512</v>
       </c>
       <c r="D36" t="n">
-        <v>662.3877630983086</v>
+        <v>664.0438201101999</v>
       </c>
       <c r="E36" t="n">
-        <v>503.150308092853</v>
+        <v>504.8063651047445</v>
       </c>
       <c r="F36" t="n">
-        <v>356.615750119738</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G36" t="n">
-        <v>219.6890717239233</v>
+        <v>221.3451287358148</v>
       </c>
       <c r="H36" t="n">
-        <v>123.744198155611</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I36" t="n">
-        <v>95.56103444839442</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J36" t="n">
-        <v>261.8822366007568</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K36" t="n">
-        <v>672.7725054452694</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L36" t="n">
-        <v>1205.062724103632</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M36" t="n">
-        <v>1512.382857383594</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N36" t="n">
-        <v>1842.245485047626</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O36" t="n">
-        <v>2121.785550266323</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P36" t="n">
-        <v>2326.808031048533</v>
+        <v>2317.834075963124</v>
       </c>
       <c r="Q36" t="n">
-        <v>2621.917448364247</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R36" t="n">
-        <v>2621.917448364247</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="S36" t="n">
-        <v>2482.011343448021</v>
+        <v>2483.667400459913</v>
       </c>
       <c r="T36" t="n">
-        <v>2287.096727371799</v>
+        <v>2288.75278438369</v>
       </c>
       <c r="U36" t="n">
-        <v>2058.991802991186</v>
+        <v>2060.647860003077</v>
       </c>
       <c r="V36" t="n">
-        <v>1823.839694759443</v>
+        <v>1825.495751771334</v>
       </c>
       <c r="W36" t="n">
-        <v>1569.602338031242</v>
+        <v>1571.258395043133</v>
       </c>
       <c r="X36" t="n">
-        <v>1361.750837825709</v>
+        <v>1363.4068948376</v>
       </c>
       <c r="Y36" t="n">
-        <v>1153.990539060755</v>
+        <v>1155.646596072646</v>
       </c>
     </row>
     <row r="37">
@@ -7069,76 +7069,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>657.8041820989411</v>
+        <v>659.4602391108325</v>
       </c>
       <c r="C37" t="n">
-        <v>557.6880902110754</v>
+        <v>559.3441472229666</v>
       </c>
       <c r="D37" t="n">
-        <v>476.3915418387808</v>
+        <v>478.0475988506722</v>
       </c>
       <c r="E37" t="n">
-        <v>397.2985392964288</v>
+        <v>398.9545963083202</v>
       </c>
       <c r="F37" t="n">
-        <v>319.2286828385596</v>
+        <v>320.884739850451</v>
       </c>
       <c r="G37" t="n">
-        <v>219.8734521984214</v>
+        <v>221.5295092103127</v>
       </c>
       <c r="H37" t="n">
-        <v>138.2755347864058</v>
+        <v>139.9315917982971</v>
       </c>
       <c r="I37" t="n">
-        <v>95.56103444839442</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J37" t="n">
-        <v>175.3942981406486</v>
+        <v>177.05035515254</v>
       </c>
       <c r="K37" t="n">
-        <v>393.0302736136044</v>
+        <v>394.6863306254957</v>
       </c>
       <c r="L37" t="n">
-        <v>708.1928898530776</v>
+        <v>709.8489468649693</v>
       </c>
       <c r="M37" t="n">
-        <v>1047.210203848605</v>
+        <v>1048.866260860496</v>
       </c>
       <c r="N37" t="n">
-        <v>1385.204884104497</v>
+        <v>1386.860941116388</v>
       </c>
       <c r="O37" t="n">
-        <v>1686.530433338238</v>
+        <v>1688.186490350129</v>
       </c>
       <c r="P37" t="n">
-        <v>1930.580769172265</v>
+        <v>1932.236826184156</v>
       </c>
       <c r="Q37" t="n">
-        <v>2036.864783372765</v>
+        <v>2038.520840384657</v>
       </c>
       <c r="R37" t="n">
-        <v>1994.609770974631</v>
+        <v>1996.265827986523</v>
       </c>
       <c r="S37" t="n">
-        <v>1863.509851930225</v>
+        <v>1865.165908942116</v>
       </c>
       <c r="T37" t="n">
-        <v>1708.544527759772</v>
+        <v>1710.200584771663</v>
       </c>
       <c r="U37" t="n">
-        <v>1488.23598001337</v>
+        <v>1489.892037025262</v>
       </c>
       <c r="V37" t="n">
-        <v>1302.371582847524</v>
+        <v>1304.027639859416</v>
       </c>
       <c r="W37" t="n">
-        <v>1081.774503850605</v>
+        <v>1083.430560862496</v>
       </c>
       <c r="X37" t="n">
-        <v>922.6050439926287</v>
+        <v>924.26110100452</v>
       </c>
       <c r="Y37" t="n">
-        <v>770.6325558891398</v>
+        <v>772.288612901031</v>
       </c>
     </row>
     <row r="38">
@@ -7148,76 +7148,76 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2374.216356690176</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C38" t="n">
-        <v>2005.253839749765</v>
+        <v>2059.358867610192</v>
       </c>
       <c r="D38" t="n">
-        <v>1646.988141143014</v>
+        <v>1701.093169003442</v>
       </c>
       <c r="E38" t="n">
-        <v>1261.19988854477</v>
+        <v>1315.304916405198</v>
       </c>
       <c r="F38" t="n">
-        <v>850.2139837551624</v>
+        <v>904.3190116155899</v>
       </c>
       <c r="G38" t="n">
-        <v>435.1415336001585</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H38" t="n">
-        <v>137.5579332089257</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I38" t="n">
-        <v>95.56103444839442</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J38" t="n">
-        <v>284.4401654074198</v>
+        <v>365.8813331823794</v>
       </c>
       <c r="K38" t="n">
-        <v>939.1634975427194</v>
+        <v>889.2841917514091</v>
       </c>
       <c r="L38" t="n">
-        <v>1803.682313196074</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M38" t="n">
-        <v>2782.232616025903</v>
+        <v>2388.164701515098</v>
       </c>
       <c r="N38" t="n">
-        <v>3573.001456870722</v>
+        <v>3183.709822619129</v>
       </c>
       <c r="O38" t="n">
-        <v>4075.973927750058</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P38" t="n">
-        <v>4470.748294107237</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q38" t="n">
-        <v>4719.034655862919</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R38" t="n">
-        <v>4778.051722419721</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S38" t="n">
-        <v>4667.761053946816</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T38" t="n">
-        <v>4461.783306331038</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U38" t="n">
-        <v>4208.252829604875</v>
+        <v>4262.357857465302</v>
       </c>
       <c r="V38" t="n">
-        <v>3877.189942261304</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W38" t="n">
-        <v>3524.42128699119</v>
+        <v>3578.526314851617</v>
       </c>
       <c r="X38" t="n">
-        <v>3150.95552873011</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y38" t="n">
-        <v>2760.816196754298</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="39">
@@ -7227,76 +7227,76 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>970.5927724973194</v>
+        <v>987.4312590525782</v>
       </c>
       <c r="C39" t="n">
-        <v>796.1397432161924</v>
+        <v>812.9782297714512</v>
       </c>
       <c r="D39" t="n">
-        <v>647.2053335549413</v>
+        <v>664.0438201101999</v>
       </c>
       <c r="E39" t="n">
-        <v>487.9678785494857</v>
+        <v>504.8063651047445</v>
       </c>
       <c r="F39" t="n">
-        <v>341.4333205763708</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G39" t="n">
-        <v>205.0702204089893</v>
+        <v>221.3451287358148</v>
       </c>
       <c r="H39" t="n">
-        <v>114.5683260468568</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I39" t="n">
-        <v>95.56103444839442</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J39" t="n">
-        <v>189.2383039390118</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K39" t="n">
-        <v>427.5025029193589</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L39" t="n">
-        <v>794.2006632320242</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M39" t="n">
-        <v>1241.47698845434</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N39" t="n">
-        <v>1715.000032008795</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O39" t="n">
-        <v>2125.96131142685</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P39" t="n">
-        <v>2436.460902902953</v>
+        <v>2317.834075963124</v>
       </c>
       <c r="Q39" t="n">
-        <v>2594.102460549552</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R39" t="n">
-        <v>2593.958107142068</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="S39" t="n">
-        <v>2464.520220635548</v>
+        <v>2483.667400459913</v>
       </c>
       <c r="T39" t="n">
-        <v>2271.877220313403</v>
+        <v>2288.75278438369</v>
       </c>
       <c r="U39" t="n">
-        <v>2043.809373447819</v>
+        <v>2060.647860003077</v>
       </c>
       <c r="V39" t="n">
-        <v>1808.657265216076</v>
+        <v>1825.495751771334</v>
       </c>
       <c r="W39" t="n">
-        <v>1554.419908487874</v>
+        <v>1571.258395043133</v>
       </c>
       <c r="X39" t="n">
-        <v>1346.568408282341</v>
+        <v>1363.4068948376</v>
       </c>
       <c r="Y39" t="n">
-        <v>1138.808109517387</v>
+        <v>1155.646596072646</v>
       </c>
     </row>
     <row r="40">
@@ -7306,76 +7306,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>788.5151678215052</v>
+        <v>659.4602391108328</v>
       </c>
       <c r="C40" t="n">
-        <v>667.0286178416716</v>
+        <v>559.344147222967</v>
       </c>
       <c r="D40" t="n">
-        <v>564.3616113774092</v>
+        <v>478.0475988506723</v>
       </c>
       <c r="E40" t="n">
-        <v>463.8981507430893</v>
+        <v>398.9545963083202</v>
       </c>
       <c r="F40" t="n">
-        <v>364.4578361932523</v>
+        <v>320.884739850451</v>
       </c>
       <c r="G40" t="n">
-        <v>244.2046325160447</v>
+        <v>221.5295092103129</v>
       </c>
       <c r="H40" t="n">
-        <v>145.4370786819758</v>
+        <v>139.9315917982973</v>
       </c>
       <c r="I40" t="n">
-        <v>95.56103444839442</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J40" t="n">
-        <v>187.1890521477366</v>
+        <v>177.05035515254</v>
       </c>
       <c r="K40" t="n">
-        <v>437.6816203490195</v>
+        <v>394.6863306254957</v>
       </c>
       <c r="L40" t="n">
-        <v>800.7468040499223</v>
+        <v>709.8489468649691</v>
       </c>
       <c r="M40" t="n">
-        <v>1191.409234901878</v>
+        <v>1048.866260860496</v>
       </c>
       <c r="N40" t="n">
-        <v>1579.322996860149</v>
+        <v>1386.860941116388</v>
       </c>
       <c r="O40" t="n">
-        <v>1925.157981032969</v>
+        <v>1688.186490350129</v>
       </c>
       <c r="P40" t="n">
-        <v>2204.270866719035</v>
+        <v>1932.236826184156</v>
       </c>
       <c r="Q40" t="n">
-        <v>2328.386548123956</v>
+        <v>2038.520840384656</v>
       </c>
       <c r="R40" t="n">
-        <v>2286.005723829558</v>
+        <v>1996.265827986523</v>
       </c>
       <c r="S40" t="n">
-        <v>2141.769472604457</v>
+        <v>1865.165908942116</v>
       </c>
       <c r="T40" t="n">
-        <v>1967.452490122057</v>
+        <v>1710.200584771663</v>
       </c>
       <c r="U40" t="n">
-        <v>1725.799256195774</v>
+        <v>1489.892037025262</v>
       </c>
       <c r="V40" t="n">
-        <v>1518.56440093796</v>
+        <v>1304.027639859416</v>
       </c>
       <c r="W40" t="n">
-        <v>1276.596863849072</v>
+        <v>1083.430560862497</v>
       </c>
       <c r="X40" t="n">
-        <v>1096.056945899128</v>
+        <v>924.2611010045205</v>
       </c>
       <c r="Y40" t="n">
-        <v>922.7139997036716</v>
+        <v>772.2886129010315</v>
       </c>
     </row>
     <row r="41">
@@ -7385,76 +7385,76 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2374.216356690176</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C41" t="n">
-        <v>2005.253839749765</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D41" t="n">
-        <v>1646.988141143015</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E41" t="n">
-        <v>1261.199888544771</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F41" t="n">
-        <v>850.2139837551626</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G41" t="n">
-        <v>435.1415336001592</v>
+        <v>488.1932370805466</v>
       </c>
       <c r="H41" t="n">
-        <v>137.5579332089257</v>
+        <v>179.822278382246</v>
       </c>
       <c r="I41" t="n">
-        <v>95.56103444839442</v>
+        <v>97.21709146028562</v>
       </c>
       <c r="J41" t="n">
-        <v>284.4401654074198</v>
+        <v>365.8813331823789</v>
       </c>
       <c r="K41" t="n">
-        <v>618.2595390972663</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L41" t="n">
-        <v>1482.778354750621</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M41" t="n">
-        <v>2461.32865758045</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N41" t="n">
-        <v>3441.080929807096</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O41" t="n">
-        <v>4075.973927750058</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P41" t="n">
-        <v>4470.748294107237</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q41" t="n">
-        <v>4719.034655862919</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R41" t="n">
-        <v>4778.051722419721</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S41" t="n">
-        <v>4667.761053946816</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T41" t="n">
-        <v>4461.783306331038</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U41" t="n">
-        <v>4208.252829604875</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V41" t="n">
-        <v>3877.189942261304</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W41" t="n">
-        <v>3524.42128699119</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X41" t="n">
-        <v>3150.95552873011</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y41" t="n">
-        <v>2760.816196754298</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="42">
@@ -7464,76 +7464,76 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>970.5927724973197</v>
+        <v>987.4312590525782</v>
       </c>
       <c r="C42" t="n">
-        <v>796.1397432161928</v>
+        <v>812.9782297714512</v>
       </c>
       <c r="D42" t="n">
-        <v>647.2053335549415</v>
+        <v>664.0438201101999</v>
       </c>
       <c r="E42" t="n">
-        <v>487.9678785494859</v>
+        <v>504.8063651047445</v>
       </c>
       <c r="F42" t="n">
-        <v>341.4333205763709</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G42" t="n">
-        <v>205.0702204089889</v>
+        <v>221.3451287358148</v>
       </c>
       <c r="H42" t="n">
-        <v>114.5683260468565</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I42" t="n">
-        <v>95.56103444839442</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J42" t="n">
-        <v>189.2383039390118</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K42" t="n">
-        <v>427.5025029193589</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L42" t="n">
-        <v>794.2006632320242</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M42" t="n">
-        <v>1241.47698845434</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N42" t="n">
-        <v>1715.000032008795</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O42" t="n">
-        <v>2125.96131142685</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P42" t="n">
-        <v>2436.460902902953</v>
+        <v>2317.834075963124</v>
       </c>
       <c r="Q42" t="n">
-        <v>2594.102460549552</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R42" t="n">
-        <v>2593.958107142068</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="S42" t="n">
-        <v>2464.520220635548</v>
+        <v>2483.667400459913</v>
       </c>
       <c r="T42" t="n">
-        <v>2271.877220313403</v>
+        <v>2288.75278438369</v>
       </c>
       <c r="U42" t="n">
-        <v>2043.809373447819</v>
+        <v>2060.647860003077</v>
       </c>
       <c r="V42" t="n">
-        <v>1808.657265216076</v>
+        <v>1825.495751771334</v>
       </c>
       <c r="W42" t="n">
-        <v>1554.419908487874</v>
+        <v>1571.258395043133</v>
       </c>
       <c r="X42" t="n">
-        <v>1346.568408282342</v>
+        <v>1363.4068948376</v>
       </c>
       <c r="Y42" t="n">
-        <v>1138.808109517388</v>
+        <v>1155.646596072646</v>
       </c>
     </row>
     <row r="43">
@@ -7543,76 +7543,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>788.5151678215054</v>
+        <v>659.4602391108327</v>
       </c>
       <c r="C43" t="n">
-        <v>667.0286178416718</v>
+        <v>559.344147222967</v>
       </c>
       <c r="D43" t="n">
-        <v>564.3616113774094</v>
+        <v>478.0475988506724</v>
       </c>
       <c r="E43" t="n">
-        <v>463.8981507430895</v>
+        <v>398.9545963083204</v>
       </c>
       <c r="F43" t="n">
-        <v>364.4578361932524</v>
+        <v>320.8847398504511</v>
       </c>
       <c r="G43" t="n">
-        <v>244.2046325160447</v>
+        <v>221.5295092103129</v>
       </c>
       <c r="H43" t="n">
-        <v>145.4370786819758</v>
+        <v>139.9315917982973</v>
       </c>
       <c r="I43" t="n">
-        <v>95.56103444839442</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J43" t="n">
-        <v>187.1890521477364</v>
+        <v>177.05035515254</v>
       </c>
       <c r="K43" t="n">
-        <v>437.6816203490195</v>
+        <v>394.6863306254958</v>
       </c>
       <c r="L43" t="n">
-        <v>800.7468040499223</v>
+        <v>709.8489468649693</v>
       </c>
       <c r="M43" t="n">
-        <v>1191.409234901878</v>
+        <v>1048.866260860496</v>
       </c>
       <c r="N43" t="n">
-        <v>1579.322996860149</v>
+        <v>1386.860941116388</v>
       </c>
       <c r="O43" t="n">
-        <v>1925.157981032969</v>
+        <v>1688.186490350129</v>
       </c>
       <c r="P43" t="n">
-        <v>2204.270866719035</v>
+        <v>1932.236826184156</v>
       </c>
       <c r="Q43" t="n">
-        <v>2328.386548123956</v>
+        <v>2038.520840384656</v>
       </c>
       <c r="R43" t="n">
-        <v>2286.005723829558</v>
+        <v>1996.265827986523</v>
       </c>
       <c r="S43" t="n">
-        <v>2141.769472604457</v>
+        <v>1865.165908942116</v>
       </c>
       <c r="T43" t="n">
-        <v>1967.452490122057</v>
+        <v>1710.200584771663</v>
       </c>
       <c r="U43" t="n">
-        <v>1725.799256195774</v>
+        <v>1489.892037025262</v>
       </c>
       <c r="V43" t="n">
-        <v>1518.56440093796</v>
+        <v>1304.027639859416</v>
       </c>
       <c r="W43" t="n">
-        <v>1276.596863849073</v>
+        <v>1083.430560862496</v>
       </c>
       <c r="X43" t="n">
-        <v>1096.056945899129</v>
+        <v>924.2611010045202</v>
       </c>
       <c r="Y43" t="n">
-        <v>922.7139997036718</v>
+        <v>772.2886129010312</v>
       </c>
     </row>
     <row r="44">
@@ -7622,76 +7622,76 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2374.216356690176</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C44" t="n">
-        <v>2005.253839749764</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D44" t="n">
-        <v>1646.988141143014</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E44" t="n">
-        <v>1261.199888544769</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F44" t="n">
-        <v>850.213983755162</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G44" t="n">
-        <v>435.1415336001585</v>
+        <v>488.1932370805466</v>
       </c>
       <c r="H44" t="n">
-        <v>137.5579332089257</v>
+        <v>179.822278382246</v>
       </c>
       <c r="I44" t="n">
-        <v>95.56103444839442</v>
+        <v>97.21709146028562</v>
       </c>
       <c r="J44" t="n">
-        <v>451.8458144277729</v>
+        <v>365.8813331823789</v>
       </c>
       <c r="K44" t="n">
-        <v>1106.569146563073</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L44" t="n">
-        <v>1557.603359811481</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M44" t="n">
-        <v>2536.15366264131</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N44" t="n">
-        <v>3297.750360443162</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O44" t="n">
-        <v>3800.722831322499</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P44" t="n">
-        <v>4195.497197679677</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q44" t="n">
-        <v>4653.975400188665</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R44" t="n">
-        <v>4778.05172241972</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S44" t="n">
-        <v>4667.761053946815</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T44" t="n">
-        <v>4461.783306331037</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U44" t="n">
-        <v>4208.252829604874</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V44" t="n">
-        <v>3877.189942261304</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W44" t="n">
-        <v>3524.421286991189</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X44" t="n">
-        <v>3150.95552873011</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y44" t="n">
-        <v>2760.816196754298</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="45">
@@ -7701,76 +7701,76 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>970.5927724973197</v>
+        <v>987.4312590525782</v>
       </c>
       <c r="C45" t="n">
-        <v>796.1397432161928</v>
+        <v>812.9782297714512</v>
       </c>
       <c r="D45" t="n">
-        <v>647.2053335549415</v>
+        <v>664.0438201101999</v>
       </c>
       <c r="E45" t="n">
-        <v>487.9678785494859</v>
+        <v>504.8063651047445</v>
       </c>
       <c r="F45" t="n">
-        <v>341.4333205763709</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G45" t="n">
-        <v>205.0702204089889</v>
+        <v>221.3451287358148</v>
       </c>
       <c r="H45" t="n">
-        <v>114.5683260468565</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I45" t="n">
-        <v>95.56103444839442</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J45" t="n">
-        <v>189.2383039390118</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K45" t="n">
-        <v>427.5025029193589</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L45" t="n">
-        <v>794.2006632320242</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M45" t="n">
-        <v>1241.47698845434</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N45" t="n">
-        <v>1715.000032008795</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O45" t="n">
-        <v>2125.96131142685</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P45" t="n">
-        <v>2436.460902902953</v>
+        <v>2317.834075963124</v>
       </c>
       <c r="Q45" t="n">
-        <v>2594.102460549552</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R45" t="n">
-        <v>2593.958107142068</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="S45" t="n">
-        <v>2464.520220635548</v>
+        <v>2483.667400459913</v>
       </c>
       <c r="T45" t="n">
-        <v>2271.877220313403</v>
+        <v>2288.75278438369</v>
       </c>
       <c r="U45" t="n">
-        <v>2043.809373447819</v>
+        <v>2060.647860003077</v>
       </c>
       <c r="V45" t="n">
-        <v>1808.657265216076</v>
+        <v>1825.495751771334</v>
       </c>
       <c r="W45" t="n">
-        <v>1554.419908487874</v>
+        <v>1571.258395043133</v>
       </c>
       <c r="X45" t="n">
-        <v>1346.568408282342</v>
+        <v>1363.4068948376</v>
       </c>
       <c r="Y45" t="n">
-        <v>1138.808109517388</v>
+        <v>1155.646596072646</v>
       </c>
     </row>
     <row r="46">
@@ -7780,76 +7780,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>788.5151678215053</v>
+        <v>659.4602391108332</v>
       </c>
       <c r="C46" t="n">
-        <v>667.0286178416717</v>
+        <v>559.3441472229674</v>
       </c>
       <c r="D46" t="n">
-        <v>564.3616113774093</v>
+        <v>478.0475988506728</v>
       </c>
       <c r="E46" t="n">
-        <v>463.8981507430895</v>
+        <v>398.9545963083208</v>
       </c>
       <c r="F46" t="n">
-        <v>364.4578361932524</v>
+        <v>320.8847398504515</v>
       </c>
       <c r="G46" t="n">
-        <v>244.2046325160447</v>
+        <v>221.5295092103128</v>
       </c>
       <c r="H46" t="n">
-        <v>145.4370786819758</v>
+        <v>139.9315917982972</v>
       </c>
       <c r="I46" t="n">
-        <v>95.56103444839442</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J46" t="n">
-        <v>187.1890521477366</v>
+        <v>177.05035515254</v>
       </c>
       <c r="K46" t="n">
-        <v>437.6816203490196</v>
+        <v>394.6863306254958</v>
       </c>
       <c r="L46" t="n">
-        <v>800.7468040499224</v>
+        <v>709.8489468649693</v>
       </c>
       <c r="M46" t="n">
-        <v>1191.409234901878</v>
+        <v>1048.866260860496</v>
       </c>
       <c r="N46" t="n">
-        <v>1579.322996860149</v>
+        <v>1386.860941116388</v>
       </c>
       <c r="O46" t="n">
-        <v>1925.157981032969</v>
+        <v>1688.18649035013</v>
       </c>
       <c r="P46" t="n">
-        <v>2204.270866719035</v>
+        <v>1932.236826184157</v>
       </c>
       <c r="Q46" t="n">
-        <v>2328.386548123956</v>
+        <v>2038.520840384657</v>
       </c>
       <c r="R46" t="n">
-        <v>2286.005723829558</v>
+        <v>1996.265827986522</v>
       </c>
       <c r="S46" t="n">
-        <v>2141.769472604457</v>
+        <v>1865.165908942116</v>
       </c>
       <c r="T46" t="n">
-        <v>1967.452490122057</v>
+        <v>1710.200584771663</v>
       </c>
       <c r="U46" t="n">
-        <v>1725.799256195774</v>
+        <v>1489.892037025262</v>
       </c>
       <c r="V46" t="n">
-        <v>1518.56440093796</v>
+        <v>1304.027639859416</v>
       </c>
       <c r="W46" t="n">
-        <v>1276.596863849073</v>
+        <v>1083.430560862497</v>
       </c>
       <c r="X46" t="n">
-        <v>1096.056945899129</v>
+        <v>924.2611010045207</v>
       </c>
       <c r="Y46" t="n">
-        <v>922.7139997036718</v>
+        <v>772.2886129010318</v>
       </c>
     </row>
   </sheetData>
@@ -8055,10 +8055,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>50.07369958270193</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K3" t="n">
-        <v>264.4652370125786</v>
+        <v>145.0294169142008</v>
       </c>
       <c r="L3" t="n">
         <v>370.8403453034592</v>
@@ -8076,7 +8076,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q3" t="n">
-        <v>166.6588033951781</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8298,7 +8298,7 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L6" t="n">
-        <v>251.4045252050821</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M6" t="n">
         <v>465.7050637499999</v>
@@ -8310,7 +8310,7 @@
         <v>393.8623192767295</v>
       </c>
       <c r="P6" t="n">
-        <v>318.4627686399372</v>
+        <v>199.0269485415595</v>
       </c>
       <c r="Q6" t="n">
         <v>210.0772877358491</v>
@@ -8529,13 +8529,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>126.0910353404088</v>
+        <v>50.07369958270192</v>
       </c>
       <c r="K9" t="n">
         <v>264.4652370125786</v>
       </c>
       <c r="L9" t="n">
-        <v>251.4045252050821</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M9" t="n">
         <v>465.7050637499999</v>
@@ -8550,7 +8550,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q9" t="n">
-        <v>210.0772877358491</v>
+        <v>166.6588033951781</v>
       </c>
       <c r="R9" t="n">
         <v>45.52166981132082</v>
@@ -9003,13 +9003,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J15" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K15" t="n">
         <v>264.4652370125786</v>
       </c>
       <c r="L15" t="n">
-        <v>0</v>
+        <v>96.03744927814688</v>
       </c>
       <c r="M15" t="n">
         <v>0</v>
@@ -9021,13 +9021,13 @@
         <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>288.4091825776754</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q15" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R15" t="n">
-        <v>34.78428385445218</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -9246,7 +9246,7 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L18" t="n">
-        <v>104.6241510367947</v>
+        <v>0</v>
       </c>
       <c r="M18" t="n">
         <v>0</v>
@@ -9255,13 +9255,13 @@
         <v>0</v>
       </c>
       <c r="O18" t="n">
-        <v>393.8623192767295</v>
+        <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>0</v>
+        <v>288.4091825776754</v>
       </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R18" t="n">
         <v>34.78428385445218</v>
@@ -9477,13 +9477,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L21" t="n">
-        <v>370.8403453034592</v>
+        <v>0</v>
       </c>
       <c r="M21" t="n">
         <v>0</v>
@@ -9492,16 +9492,16 @@
         <v>0</v>
       </c>
       <c r="O21" t="n">
-        <v>393.8623192767295</v>
+        <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>124.3400780863232</v>
+        <v>277.6717966208067</v>
       </c>
       <c r="Q21" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R21" t="n">
-        <v>34.78428385445218</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -9641,7 +9641,7 @@
         <v>324.1454125711647</v>
       </c>
       <c r="L23" t="n">
-        <v>417.6612145504504</v>
+        <v>417.6612145504515</v>
       </c>
       <c r="M23" t="n">
         <v>449.5135334928325</v>
@@ -9720,10 +9720,10 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L24" t="n">
-        <v>288.4091825776757</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M24" t="n">
-        <v>0</v>
+        <v>127.6461250100648</v>
       </c>
       <c r="N24" t="n">
         <v>0</v>
@@ -9735,7 +9735,7 @@
         <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R24" t="n">
         <v>34.78428385445218</v>
@@ -9951,13 +9951,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K27" t="n">
         <v>264.4652370125786</v>
       </c>
       <c r="L27" t="n">
-        <v>370.8403453034592</v>
+        <v>0</v>
       </c>
       <c r="M27" t="n">
         <v>0</v>
@@ -9969,13 +9969,13 @@
         <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>253.7371603504743</v>
+        <v>277.6717966208067</v>
       </c>
       <c r="Q27" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R27" t="n">
-        <v>34.78428385445218</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -10194,7 +10194,7 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L30" t="n">
-        <v>288.4091825776757</v>
+        <v>0</v>
       </c>
       <c r="M30" t="n">
         <v>0</v>
@@ -10206,13 +10206,13 @@
         <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>0</v>
+        <v>277.6717966208067</v>
       </c>
       <c r="Q30" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R30" t="n">
-        <v>34.78428385445218</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -10355,7 +10355,7 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M32" t="n">
-        <v>449.5135334928325</v>
+        <v>449.5135334928336</v>
       </c>
       <c r="N32" t="n">
         <v>437.3469244119842</v>
@@ -10370,7 +10370,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R32" t="n">
-        <v>65.71641987298386</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -10443,13 +10443,13 @@
         <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>288.4091825776754</v>
+        <v>277.6717966208067</v>
       </c>
       <c r="Q33" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R33" t="n">
-        <v>34.78428385445218</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -10592,10 +10592,10 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M35" t="n">
-        <v>449.5135334928325</v>
+        <v>449.5135334928336</v>
       </c>
       <c r="N35" t="n">
-        <v>415.2058559511588</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O35" t="n">
         <v>380.8001812627454</v>
@@ -10607,7 +10607,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R35" t="n">
-        <v>5.891030169484367</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -10668,7 +10668,7 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L36" t="n">
-        <v>288.4091825776754</v>
+        <v>0</v>
       </c>
       <c r="M36" t="n">
         <v>0</v>
@@ -10680,13 +10680,13 @@
         <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>0</v>
+        <v>277.6717966208067</v>
       </c>
       <c r="Q36" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R36" t="n">
-        <v>34.78428385445218</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -10820,7 +10820,7 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K38" t="n">
         <v>324.1454125711647</v>
@@ -10832,19 +10832,19 @@
         <v>449.5135334928325</v>
       </c>
       <c r="N38" t="n">
-        <v>246.454569480845</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O38" t="n">
-        <v>0</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P38" t="n">
-        <v>0</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q38" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R38" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -10896,13 +10896,13 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>10.12574714858493</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L39" t="n">
         <v>0</v>
@@ -10917,13 +10917,13 @@
         <v>0</v>
       </c>
       <c r="P39" t="n">
-        <v>0</v>
+        <v>277.6717966208064</v>
       </c>
       <c r="Q39" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R39" t="n">
-        <v>0</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -11057,10 +11057,10 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K41" t="n">
-        <v>0</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L41" t="n">
         <v>417.6612145504504</v>
@@ -11072,16 +11072,16 @@
         <v>437.3469244119842</v>
       </c>
       <c r="O41" t="n">
-        <v>133.2530576400255</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P41" t="n">
-        <v>0</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q41" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R41" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -11133,13 +11133,13 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>10.12574714858493</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L42" t="n">
         <v>0</v>
@@ -11154,13 +11154,13 @@
         <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>0</v>
+        <v>277.6717966208067</v>
       </c>
       <c r="Q42" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R42" t="n">
-        <v>0</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -11300,19 +11300,19 @@
         <v>324.1454125711647</v>
       </c>
       <c r="L44" t="n">
-        <v>0</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M44" t="n">
         <v>449.5135334928325</v>
       </c>
       <c r="N44" t="n">
-        <v>216.9877583263328</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O44" t="n">
-        <v>0</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P44" t="n">
-        <v>0</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q44" t="n">
         <v>212.3149906599047</v>
@@ -11370,13 +11370,13 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>10.12574714858493</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L45" t="n">
         <v>0</v>
@@ -11391,13 +11391,13 @@
         <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>0</v>
+        <v>277.6717966208067</v>
       </c>
       <c r="Q45" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R45" t="n">
-        <v>0</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -22550,10 +22550,10 @@
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -22565,7 +22565,7 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>138.7625920927841</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -22595,16 +22595,16 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>174.2613221907895</v>
       </c>
       <c r="T2" t="n">
         <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
         <v>0</v>
@@ -22702,28 +22702,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>71.3284389106208</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -22762,16 +22762,16 @@
         <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
         <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="5">
@@ -23422,19 +23422,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23461,28 +23461,28 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>58.12703465517034</v>
+        <v>9.089926194207962</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T13" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="14">
@@ -23650,10 +23650,10 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
         <v>148.6154730182124</v>
@@ -23671,7 +23671,7 @@
         <v>148.9138283675361</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23704,7 +23704,7 @@
         <v>197.9208099836032</v>
       </c>
       <c r="T16" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
         <v>0</v>
@@ -23713,13 +23713,13 @@
         <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>44.59484226146785</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
-        <v>171.7613411396972</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -23887,10 +23887,10 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>167.2468210986278</v>
+        <v>21.44018857581631</v>
       </c>
       <c r="D19" t="n">
         <v>148.6154730182124</v>
@@ -23935,22 +23935,22 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>79.43092547709136</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T19" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
         <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
         <v>0</v>
@@ -24124,13 +24124,13 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
         <v>146.4339626465692</v>
@@ -24142,10 +24142,10 @@
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>111.1379300176929</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>110.419245464272</v>
+        <v>2.430003851120617</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24175,7 +24175,7 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
@@ -24193,7 +24193,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="23">
@@ -26163,7 +26163,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>1377566.007956822</v>
+        <v>1377566.007956823</v>
       </c>
     </row>
     <row r="8">
@@ -26171,7 +26171,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>1377566.007956822</v>
+        <v>1377566.007956823</v>
       </c>
     </row>
     <row r="9">
@@ -26211,7 +26211,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>1444160.351870628</v>
+        <v>1444812.804877616</v>
       </c>
     </row>
     <row r="14">
@@ -26219,7 +26219,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>1430181.515727497</v>
+        <v>1444812.804877616</v>
       </c>
     </row>
     <row r="15">
@@ -26227,7 +26227,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>1430181.515727497</v>
+        <v>1444812.804877616</v>
       </c>
     </row>
     <row r="16">
@@ -26235,7 +26235,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>1430181.515727497</v>
+        <v>1444812.804877616</v>
       </c>
     </row>
   </sheetData>
@@ -26311,7 +26311,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>18391.92434782022</v>
+        <v>18391.92434782023</v>
       </c>
       <c r="C2" t="n">
         <v>20526.04424660708</v>
@@ -26320,19 +26320,19 @@
         <v>20526.04424660708</v>
       </c>
       <c r="E2" t="n">
-        <v>19551.45298688543</v>
+        <v>19551.45298688544</v>
       </c>
       <c r="F2" t="n">
-        <v>19551.45298688544</v>
+        <v>19551.45298688545</v>
       </c>
       <c r="G2" t="n">
         <v>19551.45298688544</v>
       </c>
       <c r="H2" t="n">
-        <v>19551.45298688543</v>
+        <v>19551.45298688544</v>
       </c>
       <c r="I2" t="n">
-        <v>20526.04424660711</v>
+        <v>20526.04424660713</v>
       </c>
       <c r="J2" t="n">
         <v>20526.04424660712</v>
@@ -26344,16 +26344,16 @@
         <v>20526.04424660709</v>
       </c>
       <c r="M2" t="n">
-        <v>20526.04424660707</v>
+        <v>20526.04424660709</v>
       </c>
       <c r="N2" t="n">
         <v>20526.0442466071</v>
       </c>
       <c r="O2" t="n">
+        <v>20526.0442466071</v>
+      </c>
+      <c r="P2" t="n">
         <v>20526.04424660709</v>
-      </c>
-      <c r="P2" t="n">
-        <v>20526.0442466071</v>
       </c>
     </row>
     <row r="3">
@@ -26363,7 +26363,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>589967.8792145444</v>
+        <v>589967.8792145445</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26372,7 +26372,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>525160.0364768961</v>
+        <v>525160.036476896</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26384,10 +26384,10 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>54505.51210371259</v>
+        <v>54505.51210371256</v>
       </c>
       <c r="J3" t="n">
-        <v>176423.219192593</v>
+        <v>176423.2191925929</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26396,10 +26396,10 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>129642.3148389447</v>
+        <v>134801.0152338371</v>
       </c>
       <c r="N3" t="n">
-        <v>216643.6227495944</v>
+        <v>54505.51210371254</v>
       </c>
       <c r="O3" t="n">
         <v>0</v>
@@ -26421,10 +26421,10 @@
         <v>174490.7773218262</v>
       </c>
       <c r="D4" t="n">
-        <v>174490.7773218262</v>
+        <v>174490.7773218261</v>
       </c>
       <c r="E4" t="n">
-        <v>29303.54555230237</v>
+        <v>29303.54555230233</v>
       </c>
       <c r="F4" t="n">
         <v>29303.54555230233</v>
@@ -26442,22 +26442,22 @@
         <v>51722.33279362282</v>
       </c>
       <c r="K4" t="n">
-        <v>51722.33279362283</v>
+        <v>51722.33279362282</v>
       </c>
       <c r="L4" t="n">
         <v>51722.33279362282</v>
       </c>
       <c r="M4" t="n">
-        <v>54709.97259871806</v>
+        <v>51722.33279362283</v>
       </c>
       <c r="N4" t="n">
-        <v>30134.53761950705</v>
+        <v>51722.3327936228</v>
       </c>
       <c r="O4" t="n">
-        <v>30134.53761950705</v>
+        <v>51722.33279362282</v>
       </c>
       <c r="P4" t="n">
-        <v>30134.53761950703</v>
+        <v>51722.33279362282</v>
       </c>
     </row>
     <row r="5">
@@ -26473,13 +26473,13 @@
         <v>82859.07806340946</v>
       </c>
       <c r="D5" t="n">
-        <v>82859.07806340946</v>
+        <v>82859.07806340947</v>
       </c>
       <c r="E5" t="n">
         <v>91987.32594871662</v>
       </c>
       <c r="F5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="G5" t="n">
         <v>91987.32594871662</v>
@@ -26488,7 +26488,7 @@
         <v>91987.32594871662</v>
       </c>
       <c r="I5" t="n">
-        <v>97715.10582002539</v>
+        <v>97715.1058200254</v>
       </c>
       <c r="J5" t="n">
         <v>97715.10582002539</v>
@@ -26500,16 +26500,16 @@
         <v>97715.1058200254</v>
       </c>
       <c r="M5" t="n">
-        <v>96456.5024909879</v>
+        <v>97715.1058200254</v>
       </c>
       <c r="N5" t="n">
-        <v>100332.6710141021</v>
+        <v>97715.1058200254</v>
       </c>
       <c r="O5" t="n">
-        <v>100332.6710141021</v>
+        <v>97715.10582002539</v>
       </c>
       <c r="P5" t="n">
-        <v>100332.6710141021</v>
+        <v>97715.10582002539</v>
       </c>
     </row>
     <row r="6">
@@ -26519,25 +26519,25 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-780202.3953102621</v>
+        <v>-780415.807300141</v>
       </c>
       <c r="C6" t="n">
         <v>-236823.8111386286</v>
       </c>
       <c r="D6" t="n">
-        <v>-236823.8111386286</v>
+        <v>-236823.8111386285</v>
       </c>
       <c r="E6" t="n">
-        <v>-626899.4549910297</v>
+        <v>-626996.9141170017</v>
       </c>
       <c r="F6" t="n">
-        <v>-101739.4185141335</v>
+        <v>-101836.8776401057</v>
       </c>
       <c r="G6" t="n">
-        <v>-101739.4185141335</v>
+        <v>-101836.8776401057</v>
       </c>
       <c r="H6" t="n">
-        <v>-101739.4185141335</v>
+        <v>-101836.8776401057</v>
       </c>
       <c r="I6" t="n">
         <v>-183416.9064707537</v>
@@ -26546,22 +26546,22 @@
         <v>-305334.613559634</v>
       </c>
       <c r="K6" t="n">
-        <v>-128911.3943670412</v>
+        <v>-128911.3943670411</v>
       </c>
       <c r="L6" t="n">
         <v>-128911.3943670411</v>
       </c>
       <c r="M6" t="n">
-        <v>-260282.7456820436</v>
+        <v>-263712.4096008783</v>
       </c>
       <c r="N6" t="n">
-        <v>-326584.7871365965</v>
+        <v>-183416.9064707537</v>
       </c>
       <c r="O6" t="n">
-        <v>-109941.1643870021</v>
+        <v>-128911.3943670411</v>
       </c>
       <c r="P6" t="n">
-        <v>-109941.164387002</v>
+        <v>-128911.3943670411</v>
       </c>
     </row>
   </sheetData>
@@ -26704,28 +26704,28 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
+        <v>68.13189012964067</v>
+      </c>
+      <c r="J2" t="n">
+        <v>68.13189012964067</v>
+      </c>
+      <c r="K2" t="n">
+        <v>68.13189012964067</v>
+      </c>
+      <c r="L2" t="n">
+        <v>68.13189012964065</v>
+      </c>
+      <c r="M2" t="n">
         <v>68.13189012964068</v>
       </c>
-      <c r="J2" t="n">
-        <v>68.13189012964068</v>
-      </c>
-      <c r="K2" t="n">
-        <v>68.13189012964068</v>
-      </c>
-      <c r="L2" t="n">
-        <v>68.13189012964067</v>
-      </c>
-      <c r="M2" t="n">
-        <v>68.13189012964072</v>
-      </c>
       <c r="N2" t="n">
-        <v>46.97513661859255</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="O2" t="n">
-        <v>46.97513661859256</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="P2" t="n">
-        <v>46.97513661859256</v>
+        <v>68.13189012964071</v>
       </c>
     </row>
     <row r="3">
@@ -26735,19 +26735,19 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="C3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="D3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="E3" t="n">
         <v>830.3824054541002</v>
       </c>
       <c r="F3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="G3" t="n">
         <v>830.3824054541002</v>
@@ -26771,13 +26771,13 @@
         <v>830.3824054541002</v>
       </c>
       <c r="N3" t="n">
-        <v>1089.776700593298</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="O3" t="n">
-        <v>1089.776700593298</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="P3" t="n">
-        <v>1089.776700593298</v>
+        <v>830.3824054541002</v>
       </c>
     </row>
     <row r="4">
@@ -26793,7 +26793,7 @@
         <v>674.2872727545556</v>
       </c>
       <c r="D4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545557</v>
       </c>
       <c r="E4" t="n">
         <v>1215.213643253573</v>
@@ -26820,16 +26820,16 @@
         <v>1215.213643253573</v>
       </c>
       <c r="M4" t="n">
-        <v>1194.51293060493</v>
+        <v>1215.213643253573</v>
       </c>
       <c r="N4" t="n">
-        <v>1194.51293060493</v>
+        <v>1215.213643253573</v>
       </c>
       <c r="O4" t="n">
-        <v>1194.51293060493</v>
+        <v>1215.213643253573</v>
       </c>
       <c r="P4" t="n">
-        <v>1194.51293060493</v>
+        <v>1215.213643253573</v>
       </c>
     </row>
   </sheetData>
@@ -26926,7 +26926,7 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>68.13189012964074</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -26941,7 +26941,7 @@
         <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>46.97513661859256</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="O2" t="n">
         <v>0</v>
@@ -26957,7 +26957,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26966,7 +26966,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>452.6387412370136</v>
+        <v>452.6387412370135</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26993,7 +26993,7 @@
         <v>0</v>
       </c>
       <c r="N3" t="n">
-        <v>259.3942951391981</v>
+        <v>0</v>
       </c>
       <c r="O3" t="n">
         <v>0</v>
@@ -27018,7 +27018,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>540.9263704990175</v>
+        <v>540.9263704990174</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27033,7 +27033,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545553</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27042,7 +27042,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>520.2256578503744</v>
+        <v>540.9263704990174</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27163,7 +27163,7 @@
         <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>68.13189012964074</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="O2" t="n">
         <v>0</v>
@@ -27264,7 +27264,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990175</v>
+        <v>540.9263704990174</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27376,10 +27376,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
@@ -27391,7 +27391,7 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>400</v>
+        <v>10.82453430266861</v>
       </c>
       <c r="H2" t="n">
         <v>323.9227727643571</v>
@@ -27424,25 +27424,25 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>54.47840257481171</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S2" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>52.20200336739009</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
         <v>0</v>
@@ -27537,28 +27537,28 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>156.1708888417951</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>134.9656217923382</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>45.199959188537</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27582,7 +27582,7 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R4" t="n">
-        <v>146.6651919801579</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
@@ -27591,19 +27591,19 @@
         <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>235.8503564698092</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V4" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -27628,10 +27628,10 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H5" t="n">
-        <v>323.9227727643571</v>
+        <v>133.445471669698</v>
       </c>
       <c r="I5" t="n">
         <v>151.9313162448613</v>
@@ -27661,13 +27661,13 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>54.47840257481171</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
         <v>174.4157128089715</v>
       </c>
       <c r="T5" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
         <v>0</v>
@@ -27679,7 +27679,7 @@
         <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>308.3270766513406</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
         <v>0</v>
@@ -27771,10 +27771,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>123.9289676594879</v>
       </c>
       <c r="D7" t="n">
         <v>148.6154730182124</v>
@@ -27783,19 +27783,19 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>66.77532804870232</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H7" t="n">
         <v>156.1708888417951</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J7" t="n">
-        <v>45.199959188537</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27819,7 +27819,7 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R7" t="n">
-        <v>146.6651919801579</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S7" t="n">
         <v>212.1455389500189</v>
@@ -27834,13 +27834,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -27850,13 +27850,13 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
         <v>381.9303700722618</v>
@@ -27871,7 +27871,7 @@
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27898,10 +27898,10 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>54.47840257481171</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S8" t="n">
-        <v>173.5743722922512</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
         <v>0</v>
@@ -27910,16 +27910,16 @@
         <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
         <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>375.0451988271877</v>
       </c>
     </row>
     <row r="9">
@@ -28008,31 +28008,31 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
         <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I10" t="n">
-        <v>82.85718120047571</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J10" t="n">
-        <v>45.199959188537</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28056,7 +28056,7 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R10" t="n">
-        <v>146.6651919801579</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S10" t="n">
         <v>212.1455389500189</v>
@@ -28077,7 +28077,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>218.5846533520948</v>
+        <v>193.2687479352323</v>
       </c>
     </row>
     <row r="11">
@@ -28087,7 +28087,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>9.003997547551989e-13</v>
+        <v>0</v>
       </c>
       <c r="C11" t="n">
         <v>0</v>
@@ -28156,7 +28156,7 @@
         <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
     </row>
     <row r="12">
@@ -29193,76 +29193,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="C25" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="D25" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="E25" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="F25" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="G25" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="H25" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="I25" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="J25" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="K25" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="L25" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="M25" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="N25" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="O25" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="P25" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="Q25" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="R25" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="S25" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="T25" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="U25" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="V25" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="W25" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="X25" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="Y25" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
     </row>
     <row r="26">
@@ -29430,76 +29430,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="C28" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="D28" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="E28" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="F28" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="G28" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="H28" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="I28" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="J28" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="K28" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="L28" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="M28" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="N28" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="O28" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="P28" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="Q28" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="R28" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="S28" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="T28" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="U28" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="V28" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="W28" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="X28" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="Y28" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
     </row>
     <row r="29">
@@ -29667,76 +29667,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="C31" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="D31" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="E31" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="F31" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="G31" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="H31" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="I31" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="J31" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="K31" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="L31" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="M31" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="N31" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="O31" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="P31" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="Q31" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="R31" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="S31" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="T31" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="U31" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="V31" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="W31" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="X31" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="Y31" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
     </row>
     <row r="32">
@@ -29904,76 +29904,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="C34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="D34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="E34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="F34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="G34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="H34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="I34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="J34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="K34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="L34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="M34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="N34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="O34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="P34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="Q34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="R34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="S34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="T34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="U34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="V34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="W34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="X34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="Y34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
     </row>
     <row r="35">
@@ -30001,7 +30001,7 @@
         <v>0</v>
       </c>
       <c r="H35" t="n">
-        <v>12.20343551721271</v>
+        <v>0</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -30040,7 +30040,7 @@
         <v>0</v>
       </c>
       <c r="U35" t="n">
-        <v>68.13189012964072</v>
+        <v>0</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
@@ -30141,76 +30141,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>68.13189012964072</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="C37" t="n">
-        <v>68.13189012964072</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="D37" t="n">
-        <v>68.13189012964072</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="E37" t="n">
-        <v>68.13189012964072</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="F37" t="n">
-        <v>68.13189012964072</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="G37" t="n">
-        <v>68.13189012964072</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="H37" t="n">
-        <v>68.13189012964072</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="I37" t="n">
-        <v>68.13189012964072</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="J37" t="n">
-        <v>68.13189012964072</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="K37" t="n">
-        <v>68.13189012964072</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="L37" t="n">
-        <v>68.13189012964072</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="M37" t="n">
-        <v>68.13189012964072</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="N37" t="n">
-        <v>68.13189012964072</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="O37" t="n">
-        <v>68.13189012964072</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="P37" t="n">
-        <v>68.13189012964072</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="Q37" t="n">
-        <v>68.13189012964072</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="R37" t="n">
-        <v>68.13189012964072</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="S37" t="n">
-        <v>68.13189012964072</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="T37" t="n">
-        <v>68.13189012964072</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="U37" t="n">
-        <v>68.13189012964072</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="V37" t="n">
-        <v>68.13189012964072</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="W37" t="n">
-        <v>68.13189012964072</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="X37" t="n">
-        <v>68.13189012964072</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="Y37" t="n">
-        <v>68.13189012964072</v>
+        <v>68.13189012964068</v>
       </c>
     </row>
     <row r="38">
@@ -30378,76 +30378,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>46.97513661859255</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="C40" t="n">
-        <v>46.97513661859255</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="D40" t="n">
-        <v>46.97513661859255</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="E40" t="n">
-        <v>46.97513661859255</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="F40" t="n">
-        <v>46.97513661859255</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="G40" t="n">
-        <v>46.97513661859255</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="H40" t="n">
-        <v>46.97513661859255</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="I40" t="n">
-        <v>46.97513661859255</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="J40" t="n">
-        <v>46.97513661859255</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="K40" t="n">
-        <v>46.97513661859255</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="L40" t="n">
-        <v>46.97513661859255</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="M40" t="n">
-        <v>46.97513661859255</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="N40" t="n">
-        <v>46.97513661859255</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="O40" t="n">
-        <v>46.97513661859255</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="P40" t="n">
-        <v>46.97513661859255</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="Q40" t="n">
-        <v>46.97513661859255</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="R40" t="n">
-        <v>46.97513661859255</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="S40" t="n">
-        <v>46.97513661859255</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="T40" t="n">
-        <v>46.97513661859255</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="U40" t="n">
-        <v>46.97513661859255</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="V40" t="n">
-        <v>46.97513661859255</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="W40" t="n">
-        <v>46.97513661859255</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="X40" t="n">
-        <v>46.97513661859255</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="Y40" t="n">
-        <v>46.97513661859255</v>
+        <v>68.13189012964065</v>
       </c>
     </row>
     <row r="41">
@@ -30615,76 +30615,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>46.97513661859256</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="C43" t="n">
-        <v>46.97513661859256</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="D43" t="n">
-        <v>46.97513661859256</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="E43" t="n">
-        <v>46.97513661859256</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="F43" t="n">
-        <v>46.97513661859256</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="G43" t="n">
-        <v>46.97513661859256</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="H43" t="n">
-        <v>46.97513661859256</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="I43" t="n">
-        <v>46.97513661859256</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="J43" t="n">
-        <v>46.97513661859256</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="K43" t="n">
-        <v>46.97513661859256</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="L43" t="n">
-        <v>46.97513661859256</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="M43" t="n">
-        <v>46.97513661859256</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="N43" t="n">
-        <v>46.97513661859256</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="O43" t="n">
-        <v>46.97513661859256</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="P43" t="n">
-        <v>46.97513661859256</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="Q43" t="n">
-        <v>46.97513661859256</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="R43" t="n">
-        <v>46.97513661859256</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="S43" t="n">
-        <v>46.97513661859256</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="T43" t="n">
-        <v>46.97513661859256</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="U43" t="n">
-        <v>46.97513661859256</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="V43" t="n">
-        <v>46.97513661859256</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="W43" t="n">
-        <v>46.97513661859256</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="X43" t="n">
-        <v>46.97513661859256</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="Y43" t="n">
-        <v>46.97513661859256</v>
+        <v>68.13189012964069</v>
       </c>
     </row>
     <row r="44">
@@ -30852,76 +30852,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>46.97513661859256</v>
+        <v>68.13189012964071</v>
       </c>
       <c r="C46" t="n">
-        <v>46.97513661859256</v>
+        <v>68.13189012964071</v>
       </c>
       <c r="D46" t="n">
-        <v>46.97513661859256</v>
+        <v>68.13189012964071</v>
       </c>
       <c r="E46" t="n">
-        <v>46.97513661859256</v>
+        <v>68.13189012964071</v>
       </c>
       <c r="F46" t="n">
-        <v>46.97513661859256</v>
+        <v>68.13189012964071</v>
       </c>
       <c r="G46" t="n">
-        <v>46.97513661859256</v>
+        <v>68.13189012964071</v>
       </c>
       <c r="H46" t="n">
-        <v>46.97513661859256</v>
+        <v>68.13189012964071</v>
       </c>
       <c r="I46" t="n">
-        <v>46.97513661859256</v>
+        <v>68.13189012964071</v>
       </c>
       <c r="J46" t="n">
-        <v>46.97513661859256</v>
+        <v>68.13189012964071</v>
       </c>
       <c r="K46" t="n">
-        <v>46.97513661859256</v>
+        <v>68.13189012964071</v>
       </c>
       <c r="L46" t="n">
-        <v>46.97513661859256</v>
+        <v>68.13189012964071</v>
       </c>
       <c r="M46" t="n">
-        <v>46.97513661859256</v>
+        <v>68.13189012964071</v>
       </c>
       <c r="N46" t="n">
-        <v>46.97513661859256</v>
+        <v>68.13189012964071</v>
       </c>
       <c r="O46" t="n">
-        <v>46.97513661859256</v>
+        <v>68.13189012964071</v>
       </c>
       <c r="P46" t="n">
-        <v>46.97513661859256</v>
+        <v>68.13189012964071</v>
       </c>
       <c r="Q46" t="n">
-        <v>46.97513661859256</v>
+        <v>68.13189012964071</v>
       </c>
       <c r="R46" t="n">
-        <v>46.97513661859256</v>
+        <v>68.13189012964071</v>
       </c>
       <c r="S46" t="n">
-        <v>46.97513661859256</v>
+        <v>68.13189012964071</v>
       </c>
       <c r="T46" t="n">
-        <v>46.97513661859256</v>
+        <v>68.13189012964071</v>
       </c>
       <c r="U46" t="n">
-        <v>46.97513661859256</v>
+        <v>68.13189012964071</v>
       </c>
       <c r="V46" t="n">
-        <v>46.97513661859256</v>
+        <v>68.13189012964071</v>
       </c>
       <c r="W46" t="n">
-        <v>46.97513661859256</v>
+        <v>68.13189012964071</v>
       </c>
       <c r="X46" t="n">
-        <v>46.97513661859256</v>
+        <v>68.13189012964071</v>
       </c>
       <c r="Y46" t="n">
-        <v>46.97513661859256</v>
+        <v>68.13189012964071</v>
       </c>
     </row>
   </sheetData>
@@ -31045,19 +31045,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I2" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554468</v>
       </c>
       <c r="J2" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K2" t="n">
-        <v>193.1674799081577</v>
+        <v>193.1674799081578</v>
       </c>
       <c r="L2" t="n">
-        <v>239.6413398630669</v>
+        <v>239.641339863067</v>
       </c>
       <c r="M2" t="n">
-        <v>266.6471645405367</v>
+        <v>266.6471645405368</v>
       </c>
       <c r="N2" t="n">
         <v>270.9617944338304</v>
@@ -31072,13 +31072,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R2" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633799</v>
       </c>
       <c r="S2" t="n">
-        <v>34.60435677727382</v>
+        <v>34.60435677727383</v>
       </c>
       <c r="T2" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473554</v>
       </c>
       <c r="U2" t="n">
         <v>0.1214853995472036</v>
@@ -31118,16 +31118,16 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141111</v>
       </c>
       <c r="H3" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188916</v>
       </c>
       <c r="I3" t="n">
-        <v>27.97441286890689</v>
+        <v>27.9744128689069</v>
       </c>
       <c r="J3" t="n">
-        <v>76.76392708396476</v>
+        <v>76.76392708396477</v>
       </c>
       <c r="K3" t="n">
         <v>131.2017781649102</v>
@@ -31145,22 +31145,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P3" t="n">
-        <v>155.1528646479577</v>
+        <v>155.1528646479578</v>
       </c>
       <c r="Q3" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R3" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034983</v>
       </c>
       <c r="S3" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T3" t="n">
-        <v>3.274966296372665</v>
+        <v>3.274966296372666</v>
       </c>
       <c r="U3" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619154</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31197,16 +31197,16 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.6811770994078612</v>
       </c>
       <c r="H4" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644443</v>
       </c>
       <c r="I4" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J4" t="n">
-        <v>48.15922092813577</v>
+        <v>48.15922092813578</v>
       </c>
       <c r="K4" t="n">
         <v>79.14039391302239</v>
@@ -31221,16 +31221,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O4" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175845</v>
       </c>
       <c r="P4" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q4" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678009</v>
       </c>
       <c r="R4" t="n">
-        <v>30.62819939701163</v>
+        <v>30.62819939701164</v>
       </c>
       <c r="S4" t="n">
         <v>11.87105908695336</v>
@@ -31282,19 +31282,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I5" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554468</v>
       </c>
       <c r="J5" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K5" t="n">
-        <v>193.1674799081577</v>
+        <v>193.1674799081578</v>
       </c>
       <c r="L5" t="n">
-        <v>239.6413398630669</v>
+        <v>239.641339863067</v>
       </c>
       <c r="M5" t="n">
-        <v>266.6471645405367</v>
+        <v>266.6471645405368</v>
       </c>
       <c r="N5" t="n">
         <v>270.9617944338304</v>
@@ -31309,13 +31309,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R5" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633799</v>
       </c>
       <c r="S5" t="n">
-        <v>34.60435677727382</v>
+        <v>34.60435677727383</v>
       </c>
       <c r="T5" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473554</v>
       </c>
       <c r="U5" t="n">
         <v>0.1214853995472036</v>
@@ -31355,16 +31355,16 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141111</v>
       </c>
       <c r="H6" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188916</v>
       </c>
       <c r="I6" t="n">
-        <v>27.97441286890689</v>
+        <v>27.9744128689069</v>
       </c>
       <c r="J6" t="n">
-        <v>76.76392708396476</v>
+        <v>76.76392708396477</v>
       </c>
       <c r="K6" t="n">
         <v>131.2017781649102</v>
@@ -31382,22 +31382,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P6" t="n">
-        <v>155.1528646479577</v>
+        <v>155.1528646479578</v>
       </c>
       <c r="Q6" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R6" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034983</v>
       </c>
       <c r="S6" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T6" t="n">
-        <v>3.274966296372665</v>
+        <v>3.274966296372666</v>
       </c>
       <c r="U6" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619154</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31434,16 +31434,16 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.6811770994078612</v>
       </c>
       <c r="H7" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644443</v>
       </c>
       <c r="I7" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J7" t="n">
-        <v>48.15922092813577</v>
+        <v>48.15922092813578</v>
       </c>
       <c r="K7" t="n">
         <v>79.14039391302239</v>
@@ -31458,16 +31458,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O7" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175845</v>
       </c>
       <c r="P7" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q7" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678009</v>
       </c>
       <c r="R7" t="n">
-        <v>30.62819939701163</v>
+        <v>30.62819939701164</v>
       </c>
       <c r="S7" t="n">
         <v>11.87105908695336</v>
@@ -31519,19 +31519,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I8" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554468</v>
       </c>
       <c r="J8" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K8" t="n">
-        <v>193.1674799081577</v>
+        <v>193.1674799081578</v>
       </c>
       <c r="L8" t="n">
-        <v>239.6413398630669</v>
+        <v>239.641339863067</v>
       </c>
       <c r="M8" t="n">
-        <v>266.6471645405367</v>
+        <v>266.6471645405368</v>
       </c>
       <c r="N8" t="n">
         <v>270.9617944338304</v>
@@ -31546,13 +31546,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R8" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633799</v>
       </c>
       <c r="S8" t="n">
-        <v>34.60435677727382</v>
+        <v>34.60435677727383</v>
       </c>
       <c r="T8" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473554</v>
       </c>
       <c r="U8" t="n">
         <v>0.1214853995472036</v>
@@ -31592,16 +31592,16 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141111</v>
       </c>
       <c r="H9" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188916</v>
       </c>
       <c r="I9" t="n">
-        <v>27.97441286890689</v>
+        <v>27.9744128689069</v>
       </c>
       <c r="J9" t="n">
-        <v>76.76392708396476</v>
+        <v>76.76392708396477</v>
       </c>
       <c r="K9" t="n">
         <v>131.2017781649102</v>
@@ -31619,22 +31619,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P9" t="n">
-        <v>155.1528646479577</v>
+        <v>155.1528646479578</v>
       </c>
       <c r="Q9" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R9" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034983</v>
       </c>
       <c r="S9" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T9" t="n">
-        <v>3.274966296372665</v>
+        <v>3.274966296372666</v>
       </c>
       <c r="U9" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619154</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31671,16 +31671,16 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.6811770994078612</v>
       </c>
       <c r="H10" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644443</v>
       </c>
       <c r="I10" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J10" t="n">
-        <v>48.15922092813577</v>
+        <v>48.15922092813578</v>
       </c>
       <c r="K10" t="n">
         <v>79.14039391302239</v>
@@ -31695,16 +31695,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O10" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175845</v>
       </c>
       <c r="P10" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q10" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678009</v>
       </c>
       <c r="R10" t="n">
-        <v>30.62819939701163</v>
+        <v>30.62819939701164</v>
       </c>
       <c r="S10" t="n">
         <v>11.87105908695336</v>
@@ -31987,16 +31987,16 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H14" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I14" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J14" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K14" t="n">
         <v>424.6341946041488</v>
@@ -32005,7 +32005,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M14" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N14" t="n">
         <v>595.6470695927186</v>
@@ -32014,7 +32014,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P14" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q14" t="n">
         <v>360.4902833647496</v>
@@ -32023,7 +32023,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S14" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T14" t="n">
         <v>14.61306122562944</v>
@@ -32066,7 +32066,7 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H15" t="n">
         <v>17.25001940386726</v>
@@ -32075,7 +32075,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J15" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K15" t="n">
         <v>288.4168775622982</v>
@@ -32084,10 +32084,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M15" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N15" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O15" t="n">
         <v>424.9599466855526</v>
@@ -32102,10 +32102,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S15" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T15" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U15" t="n">
         <v>0.1175069441680331</v>
@@ -32166,7 +32166,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N16" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O16" t="n">
         <v>211.6522236065632</v>
@@ -32178,16 +32178,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R16" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S16" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T16" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U16" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -33883,49 +33883,49 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>4.381011861681598</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H38" t="n">
-        <v>44.86703772844668</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I38" t="n">
-        <v>168.89895979748</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J38" t="n">
-        <v>371.8329054953988</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K38" t="n">
-        <v>557.281137600381</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L38" t="n">
-        <v>691.3565293623194</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M38" t="n">
-        <v>769.2673490574995</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N38" t="n">
-        <v>781.7148990095023</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O38" t="n">
-        <v>738.1512123099059</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P38" t="n">
-        <v>629.9949819746414</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q38" t="n">
-        <v>473.099994678169</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R38" t="n">
-        <v>275.1987363563569</v>
+        <v>209.6945076446478</v>
       </c>
       <c r="S38" t="n">
-        <v>99.83230779806951</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T38" t="n">
-        <v>19.1778794245112</v>
+        <v>14.61306122562944</v>
       </c>
       <c r="U38" t="n">
-        <v>0.3504809489345277</v>
+        <v>0.2670576580354893</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
@@ -33962,49 +33962,49 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>2.344047997502566</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H39" t="n">
-        <v>22.63856881798531</v>
+        <v>17.25001940386726</v>
       </c>
       <c r="I39" t="n">
-        <v>80.70516131752258</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J39" t="n">
-        <v>221.4611312026438</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K39" t="n">
-        <v>378.5123470353157</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L39" t="n">
-        <v>508.9565619138796</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M39" t="n">
-        <v>593.9283018233475</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N39" t="n">
-        <v>609.6478166837925</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O39" t="n">
-        <v>557.708647897025</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P39" t="n">
-        <v>447.6103584002927</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q39" t="n">
-        <v>299.2156706987487</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R39" t="n">
-        <v>145.5365940905541</v>
+        <v>110.8952201095118</v>
       </c>
       <c r="S39" t="n">
-        <v>43.53966346238316</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T39" t="n">
-        <v>9.448158375898497</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U39" t="n">
-        <v>0.1542136840462215</v>
+        <v>0.1175069441680331</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34041,49 +34041,49 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>1.965171099430538</v>
+        <v>1.497410895081164</v>
       </c>
       <c r="H40" t="n">
-        <v>17.47215759311879</v>
+        <v>13.31334413990345</v>
       </c>
       <c r="I40" t="n">
-        <v>59.09805451742019</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J40" t="n">
-        <v>138.937596729739</v>
+        <v>105.8669502822383</v>
       </c>
       <c r="K40" t="n">
-        <v>228.3171513702024</v>
+        <v>173.9719203557934</v>
       </c>
       <c r="L40" t="n">
-        <v>292.167346909882</v>
+        <v>222.6241616196124</v>
       </c>
       <c r="M40" t="n">
-        <v>308.0495024316432</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N40" t="n">
-        <v>300.7247737883115</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O40" t="n">
-        <v>277.7680023086001</v>
+        <v>211.6522236065632</v>
       </c>
       <c r="P40" t="n">
-        <v>237.6785118802169</v>
+        <v>181.1050413469073</v>
       </c>
       <c r="Q40" t="n">
-        <v>164.556281789588</v>
+        <v>125.3877432235691</v>
       </c>
       <c r="R40" t="n">
-        <v>88.36123870712215</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S40" t="n">
-        <v>34.24757270553036</v>
+        <v>26.09578805336901</v>
       </c>
       <c r="T40" t="n">
-        <v>8.396640152112296</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U40" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34120,49 +34120,49 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>4.381011861681598</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H41" t="n">
-        <v>44.86703772844668</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I41" t="n">
-        <v>168.89895979748</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J41" t="n">
-        <v>371.8329054953988</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K41" t="n">
-        <v>557.281137600381</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L41" t="n">
-        <v>691.3565293623194</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M41" t="n">
-        <v>769.2673490574995</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N41" t="n">
-        <v>781.7148990095023</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O41" t="n">
-        <v>738.1512123099059</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P41" t="n">
-        <v>629.9949819746414</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q41" t="n">
-        <v>473.099994678169</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R41" t="n">
-        <v>275.1987363563569</v>
+        <v>209.6945076446478</v>
       </c>
       <c r="S41" t="n">
-        <v>99.83230779806951</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T41" t="n">
-        <v>19.1778794245112</v>
+        <v>14.61306122562944</v>
       </c>
       <c r="U41" t="n">
-        <v>0.3504809489345277</v>
+        <v>0.2670576580354893</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
@@ -34199,49 +34199,49 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>2.344047997502566</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H42" t="n">
-        <v>22.63856881798531</v>
+        <v>17.25001940386726</v>
       </c>
       <c r="I42" t="n">
-        <v>80.70516131752258</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J42" t="n">
-        <v>221.4611312026438</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K42" t="n">
-        <v>378.5123470353157</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L42" t="n">
-        <v>508.9565619138796</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M42" t="n">
-        <v>593.9283018233475</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N42" t="n">
-        <v>609.6478166837925</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O42" t="n">
-        <v>557.708647897025</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P42" t="n">
-        <v>447.6103584002927</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q42" t="n">
-        <v>299.2156706987487</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R42" t="n">
-        <v>145.5365940905541</v>
+        <v>110.8952201095118</v>
       </c>
       <c r="S42" t="n">
-        <v>43.53966346238316</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T42" t="n">
-        <v>9.448158375898497</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U42" t="n">
-        <v>0.1542136840462215</v>
+        <v>0.1175069441680331</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -34278,49 +34278,49 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>1.965171099430538</v>
+        <v>1.497410895081164</v>
       </c>
       <c r="H43" t="n">
-        <v>17.47215759311879</v>
+        <v>13.31334413990345</v>
       </c>
       <c r="I43" t="n">
-        <v>59.09805451742019</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J43" t="n">
-        <v>138.937596729739</v>
+        <v>105.8669502822383</v>
       </c>
       <c r="K43" t="n">
-        <v>228.3171513702024</v>
+        <v>173.9719203557934</v>
       </c>
       <c r="L43" t="n">
-        <v>292.167346909882</v>
+        <v>222.6241616196124</v>
       </c>
       <c r="M43" t="n">
-        <v>308.0495024316432</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N43" t="n">
-        <v>300.7247737883115</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O43" t="n">
-        <v>277.7680023086001</v>
+        <v>211.6522236065632</v>
       </c>
       <c r="P43" t="n">
-        <v>237.6785118802169</v>
+        <v>181.1050413469073</v>
       </c>
       <c r="Q43" t="n">
-        <v>164.556281789588</v>
+        <v>125.3877432235691</v>
       </c>
       <c r="R43" t="n">
-        <v>88.36123870712215</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S43" t="n">
-        <v>34.24757270553036</v>
+        <v>26.09578805336901</v>
       </c>
       <c r="T43" t="n">
-        <v>8.396640152112296</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U43" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34357,49 +34357,49 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>4.381011861681598</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H44" t="n">
-        <v>44.86703772844668</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I44" t="n">
-        <v>168.89895979748</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J44" t="n">
-        <v>371.8329054953988</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K44" t="n">
-        <v>557.281137600381</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L44" t="n">
-        <v>691.3565293623194</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M44" t="n">
-        <v>769.2673490574995</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N44" t="n">
-        <v>781.7148990095023</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O44" t="n">
-        <v>738.1512123099059</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P44" t="n">
-        <v>629.9949819746414</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q44" t="n">
-        <v>473.099994678169</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R44" t="n">
-        <v>275.1987363563569</v>
+        <v>209.6945076446478</v>
       </c>
       <c r="S44" t="n">
-        <v>99.83230779806951</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T44" t="n">
-        <v>19.1778794245112</v>
+        <v>14.61306122562944</v>
       </c>
       <c r="U44" t="n">
-        <v>0.3504809489345277</v>
+        <v>0.2670576580354893</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
@@ -34436,49 +34436,49 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>2.344047997502566</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H45" t="n">
-        <v>22.63856881798531</v>
+        <v>17.25001940386726</v>
       </c>
       <c r="I45" t="n">
-        <v>80.70516131752258</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J45" t="n">
-        <v>221.4611312026438</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K45" t="n">
-        <v>378.5123470353157</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L45" t="n">
-        <v>508.9565619138796</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M45" t="n">
-        <v>593.9283018233475</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N45" t="n">
-        <v>609.6478166837925</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O45" t="n">
-        <v>557.708647897025</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P45" t="n">
-        <v>447.6103584002927</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q45" t="n">
-        <v>299.2156706987487</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R45" t="n">
-        <v>145.5365940905541</v>
+        <v>110.8952201095118</v>
       </c>
       <c r="S45" t="n">
-        <v>43.53966346238316</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T45" t="n">
-        <v>9.448158375898497</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U45" t="n">
-        <v>0.1542136840462215</v>
+        <v>0.1175069441680331</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34515,49 +34515,49 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>1.965171099430538</v>
+        <v>1.497410895081164</v>
       </c>
       <c r="H46" t="n">
-        <v>17.47215759311879</v>
+        <v>13.31334413990345</v>
       </c>
       <c r="I46" t="n">
-        <v>59.09805451742019</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J46" t="n">
-        <v>138.937596729739</v>
+        <v>105.8669502822383</v>
       </c>
       <c r="K46" t="n">
-        <v>228.3171513702024</v>
+        <v>173.9719203557934</v>
       </c>
       <c r="L46" t="n">
-        <v>292.167346909882</v>
+        <v>222.6241616196124</v>
       </c>
       <c r="M46" t="n">
-        <v>308.0495024316432</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N46" t="n">
-        <v>300.7247737883115</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O46" t="n">
-        <v>277.7680023086001</v>
+        <v>211.6522236065632</v>
       </c>
       <c r="P46" t="n">
-        <v>237.6785118802169</v>
+        <v>181.1050413469073</v>
       </c>
       <c r="Q46" t="n">
-        <v>164.556281789588</v>
+        <v>125.3877432235691</v>
       </c>
       <c r="R46" t="n">
-        <v>88.36123870712215</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S46" t="n">
-        <v>34.24757270553036</v>
+        <v>26.09578805336901</v>
       </c>
       <c r="T46" t="n">
-        <v>8.396640152112296</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U46" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -34696,19 +34696,19 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>116.937228518131</v>
+        <v>116.9372285181311</v>
       </c>
       <c r="K2" t="n">
-        <v>297.2230414343419</v>
+        <v>297.223041434342</v>
       </c>
       <c r="L2" t="n">
-        <v>421.5361394435301</v>
+        <v>421.5361394435302</v>
       </c>
       <c r="M2" t="n">
-        <v>485.8144648060965</v>
+        <v>485.8144648060966</v>
       </c>
       <c r="N2" t="n">
-        <v>478.8956552492236</v>
+        <v>478.8956552492237</v>
       </c>
       <c r="O2" t="n">
         <v>406.5635087530452</v>
@@ -34775,10 +34775,10 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>76.01733575770692</v>
       </c>
       <c r="K3" t="n">
-        <v>257.8255762031298</v>
+        <v>138.389756104752</v>
       </c>
       <c r="L3" t="n">
         <v>408.7029475713857</v>
@@ -34787,16 +34787,16 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N3" t="n">
-        <v>559.3197334338902</v>
+        <v>559.3197334338903</v>
       </c>
       <c r="O3" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P3" t="n">
-        <v>339.6412258735646</v>
+        <v>339.6412258735647</v>
       </c>
       <c r="Q3" t="n">
-        <v>130.3926104730631</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34933,19 +34933,19 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>116.937228518131</v>
+        <v>116.9372285181311</v>
       </c>
       <c r="K5" t="n">
-        <v>297.2230414343419</v>
+        <v>297.223041434342</v>
       </c>
       <c r="L5" t="n">
-        <v>421.5361394435301</v>
+        <v>421.5361394435302</v>
       </c>
       <c r="M5" t="n">
-        <v>485.8144648060965</v>
+        <v>485.8144648060966</v>
       </c>
       <c r="N5" t="n">
-        <v>478.8956552492236</v>
+        <v>478.8956552492237</v>
       </c>
       <c r="O5" t="n">
         <v>406.5635087530452</v>
@@ -35012,25 +35012,25 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>76.0173357577069</v>
+        <v>76.01733575770692</v>
       </c>
       <c r="K6" t="n">
         <v>257.8255762031298</v>
       </c>
       <c r="L6" t="n">
-        <v>289.2671274730086</v>
+        <v>408.7029475713857</v>
       </c>
       <c r="M6" t="n">
         <v>529.4413268262938</v>
       </c>
       <c r="N6" t="n">
-        <v>559.3197334338902</v>
+        <v>559.3197334338903</v>
       </c>
       <c r="O6" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P6" t="n">
-        <v>339.6412258735646</v>
+        <v>220.205405775187</v>
       </c>
       <c r="Q6" t="n">
         <v>173.8110948137341</v>
@@ -35170,19 +35170,19 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>116.937228518131</v>
+        <v>116.9372285181311</v>
       </c>
       <c r="K8" t="n">
-        <v>297.2230414343419</v>
+        <v>297.223041434342</v>
       </c>
       <c r="L8" t="n">
-        <v>421.5361394435301</v>
+        <v>421.5361394435302</v>
       </c>
       <c r="M8" t="n">
-        <v>485.8144648060965</v>
+        <v>485.8144648060966</v>
       </c>
       <c r="N8" t="n">
-        <v>478.8956552492236</v>
+        <v>478.8956552492237</v>
       </c>
       <c r="O8" t="n">
         <v>406.5635087530452</v>
@@ -35249,28 +35249,28 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>76.0173357577069</v>
+        <v>0</v>
       </c>
       <c r="K9" t="n">
         <v>257.8255762031298</v>
       </c>
       <c r="L9" t="n">
-        <v>289.2671274730086</v>
+        <v>408.7029475713857</v>
       </c>
       <c r="M9" t="n">
         <v>529.4413268262938</v>
       </c>
       <c r="N9" t="n">
-        <v>559.3197334338902</v>
+        <v>559.3197334338903</v>
       </c>
       <c r="O9" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P9" t="n">
-        <v>339.6412258735646</v>
+        <v>339.6412258735647</v>
       </c>
       <c r="Q9" t="n">
-        <v>173.8110948137341</v>
+        <v>130.3926104730631</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35568,7 +35568,7 @@
         <v>12.50777016556552</v>
       </c>
       <c r="K13" t="n">
-        <v>151.7024285299105</v>
+        <v>151.702428529909</v>
       </c>
       <c r="L13" t="n">
         <v>250.2141868799285</v>
@@ -35647,13 +35647,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K14" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L14" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M14" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N14" t="n">
         <v>803.5809304081118</v>
@@ -35668,7 +35668,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R14" t="n">
-        <v>59.82538970349808</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35723,25 +35723,25 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490668</v>
       </c>
       <c r="K15" t="n">
         <v>415.0406756005178</v>
       </c>
       <c r="L15" t="n">
-        <v>249.2577049560243</v>
+        <v>345.2951542341712</v>
       </c>
       <c r="M15" t="n">
-        <v>310.4243770504662</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N15" t="n">
-        <v>333.1945733980128</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O15" t="n">
-        <v>282.3637022411081</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P15" t="n">
-        <v>495.5025975092001</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q15" t="n">
         <v>298.0903205209232</v>
@@ -35802,10 +35802,10 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K16" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L16" t="n">
         <v>250.2141868799285</v>
@@ -35817,13 +35817,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O16" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P16" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q16" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35966,7 +35966,7 @@
         <v>415.0406756005178</v>
       </c>
       <c r="L18" t="n">
-        <v>353.881855992819</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M18" t="n">
         <v>310.4243770504662</v>
@@ -35975,13 +35975,13 @@
         <v>333.1945733980128</v>
       </c>
       <c r="O18" t="n">
-        <v>676.2260215178376</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P18" t="n">
-        <v>207.0934149315246</v>
+        <v>495.5025975092001</v>
       </c>
       <c r="Q18" t="n">
-        <v>88.0130327850741</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36197,13 +36197,13 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>41.91017895490666</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K21" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L21" t="n">
-        <v>620.0980502594834</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M21" t="n">
         <v>310.4243770504662</v>
@@ -36212,16 +36212,16 @@
         <v>333.1945733980128</v>
       </c>
       <c r="O21" t="n">
-        <v>676.2260215178376</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P21" t="n">
-        <v>331.4334930178478</v>
+        <v>484.7652115523313</v>
       </c>
       <c r="Q21" t="n">
-        <v>88.0130327850741</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R21" t="n">
-        <v>0</v>
+        <v>10.73738595686864</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36361,7 +36361,7 @@
         <v>528.689756130333</v>
       </c>
       <c r="L23" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109082</v>
       </c>
       <c r="M23" t="n">
         <v>805.3296502221116</v>
@@ -36440,10 +36440,10 @@
         <v>415.0406756005178</v>
       </c>
       <c r="L24" t="n">
-        <v>537.6668875337</v>
+        <v>620.0980502594834</v>
       </c>
       <c r="M24" t="n">
-        <v>310.4243770504662</v>
+        <v>438.070502060531</v>
       </c>
       <c r="N24" t="n">
         <v>333.1945733980128</v>
@@ -36455,7 +36455,7 @@
         <v>207.0934149315246</v>
       </c>
       <c r="Q24" t="n">
-        <v>298.0903205209232</v>
+        <v>88.0130327850741</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36513,7 +36513,7 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>80.6396602952062</v>
+        <v>80.63966029520618</v>
       </c>
       <c r="K25" t="n">
         <v>219.8343186595512</v>
@@ -36671,13 +36671,13 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>41.91017895490666</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K27" t="n">
         <v>415.0406756005178</v>
       </c>
       <c r="L27" t="n">
-        <v>620.0980502594834</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M27" t="n">
         <v>310.4243770504662</v>
@@ -36689,13 +36689,13 @@
         <v>282.3637022411081</v>
       </c>
       <c r="P27" t="n">
-        <v>460.8305752819989</v>
+        <v>484.7652115523313</v>
       </c>
       <c r="Q27" t="n">
-        <v>88.0130327850741</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R27" t="n">
-        <v>0</v>
+        <v>10.73738595686864</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36750,7 +36750,7 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>80.6396602952062</v>
+        <v>80.63966029520618</v>
       </c>
       <c r="K28" t="n">
         <v>219.8343186595512</v>
@@ -36914,7 +36914,7 @@
         <v>415.0406756005178</v>
       </c>
       <c r="L30" t="n">
-        <v>537.6668875337</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M30" t="n">
         <v>310.4243770504662</v>
@@ -36926,13 +36926,13 @@
         <v>282.3637022411081</v>
       </c>
       <c r="P30" t="n">
-        <v>207.0934149315246</v>
+        <v>484.7652115523313</v>
       </c>
       <c r="Q30" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>10.73738595686864</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -36987,7 +36987,7 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>80.6396602952062</v>
+        <v>80.63966029520618</v>
       </c>
       <c r="K31" t="n">
         <v>219.8343186595512</v>
@@ -37075,7 +37075,7 @@
         <v>708.6910667109072</v>
       </c>
       <c r="M32" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221127</v>
       </c>
       <c r="N32" t="n">
         <v>803.5809304081118</v>
@@ -37090,7 +37090,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R32" t="n">
-        <v>59.8253897034995</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37163,13 +37163,13 @@
         <v>282.3637022411081</v>
       </c>
       <c r="P33" t="n">
-        <v>495.5025975092001</v>
+        <v>484.7652115523313</v>
       </c>
       <c r="Q33" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R33" t="n">
-        <v>0</v>
+        <v>10.73738595686864</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37224,7 +37224,7 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>80.63966029520618</v>
+        <v>80.63966029520617</v>
       </c>
       <c r="K34" t="n">
         <v>219.8343186595512</v>
@@ -37236,7 +37236,7 @@
         <v>342.4417313086132</v>
       </c>
       <c r="N34" t="n">
-        <v>341.4087679352443</v>
+        <v>341.4087679352442</v>
       </c>
       <c r="O34" t="n">
         <v>304.3692416502435</v>
@@ -37312,10 +37312,10 @@
         <v>708.6910667109072</v>
       </c>
       <c r="M35" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221127</v>
       </c>
       <c r="N35" t="n">
-        <v>781.4398619472864</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O35" t="n">
         <v>713.1546070951472</v>
@@ -37327,7 +37327,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R35" t="n">
-        <v>0</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37388,7 +37388,7 @@
         <v>415.0406756005178</v>
       </c>
       <c r="L36" t="n">
-        <v>537.6668875336997</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M36" t="n">
         <v>310.4243770504662</v>
@@ -37400,13 +37400,13 @@
         <v>282.3637022411081</v>
       </c>
       <c r="P36" t="n">
-        <v>207.0934149315246</v>
+        <v>484.7652115523313</v>
       </c>
       <c r="Q36" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R36" t="n">
-        <v>0</v>
+        <v>10.73738595686864</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37461,28 +37461,28 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>80.63966029520624</v>
+        <v>80.6396602952062</v>
       </c>
       <c r="K37" t="n">
-        <v>219.8343186595513</v>
+        <v>219.8343186595512</v>
       </c>
       <c r="L37" t="n">
         <v>318.3460770095692</v>
       </c>
       <c r="M37" t="n">
-        <v>342.4417313086133</v>
+        <v>342.4417313086132</v>
       </c>
       <c r="N37" t="n">
         <v>341.4087679352443</v>
       </c>
       <c r="O37" t="n">
-        <v>304.3692416502436</v>
+        <v>304.3692416502435</v>
       </c>
       <c r="P37" t="n">
-        <v>246.5154907414415</v>
+        <v>246.5154907414414</v>
       </c>
       <c r="Q37" t="n">
-        <v>107.3575901015155</v>
+        <v>107.3575901015154</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -37540,31 +37540,31 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>190.7870009687126</v>
+        <v>271.3780219415079</v>
       </c>
       <c r="K38" t="n">
-        <v>661.3366991265652</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L38" t="n">
-        <v>873.2513289427826</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M38" t="n">
-        <v>988.4346493230593</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N38" t="n">
-        <v>798.7564048937564</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O38" t="n">
-        <v>508.0530008882191</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P38" t="n">
-        <v>398.7619862193719</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q38" t="n">
-        <v>250.7943048037195</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R38" t="n">
-        <v>59.61319854222478</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37619,31 +37619,31 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>94.6235045359771</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K39" t="n">
-        <v>240.6709080609567</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L39" t="n">
-        <v>370.4021821340054</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M39" t="n">
-        <v>451.7942679013292</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N39" t="n">
-        <v>478.3061046004592</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O39" t="n">
-        <v>415.1124034525806</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P39" t="n">
-        <v>313.6359509859624</v>
+        <v>484.7652115523311</v>
       </c>
       <c r="Q39" t="n">
-        <v>159.2338966127272</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R39" t="n">
-        <v>0</v>
+        <v>10.73738595686865</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37698,28 +37698,28 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>92.55355323165878</v>
+        <v>80.63966029520618</v>
       </c>
       <c r="K40" t="n">
-        <v>253.0227961629121</v>
+        <v>219.8343186595512</v>
       </c>
       <c r="L40" t="n">
-        <v>366.7325087887907</v>
+        <v>318.3460770095692</v>
       </c>
       <c r="M40" t="n">
-        <v>394.6085160120764</v>
+        <v>342.4417313086132</v>
       </c>
       <c r="N40" t="n">
-        <v>391.8320827861327</v>
+        <v>341.4087679352443</v>
       </c>
       <c r="O40" t="n">
-        <v>349.3282668412323</v>
+        <v>304.3692416502436</v>
       </c>
       <c r="P40" t="n">
-        <v>281.932207763703</v>
+        <v>246.5154907414414</v>
       </c>
       <c r="Q40" t="n">
-        <v>125.3693751564862</v>
+        <v>107.3575901015154</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37777,31 +37777,31 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>190.7870009687126</v>
+        <v>271.3780219415079</v>
       </c>
       <c r="K41" t="n">
-        <v>337.1912865554005</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L41" t="n">
-        <v>873.2513289427826</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M41" t="n">
-        <v>988.4346493230593</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N41" t="n">
-        <v>989.6487598248956</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O41" t="n">
-        <v>641.3060585282446</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P41" t="n">
-        <v>398.7619862193719</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q41" t="n">
-        <v>250.7943048037195</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R41" t="n">
-        <v>59.61319854222478</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37856,31 +37856,31 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>94.6235045359771</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K42" t="n">
-        <v>240.6709080609567</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L42" t="n">
-        <v>370.4021821340054</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M42" t="n">
-        <v>451.7942679013292</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N42" t="n">
-        <v>478.3061046004592</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O42" t="n">
-        <v>415.1124034525806</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P42" t="n">
-        <v>313.6359509859624</v>
+        <v>484.7652115523313</v>
       </c>
       <c r="Q42" t="n">
-        <v>159.2338966127272</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R42" t="n">
-        <v>0</v>
+        <v>10.73738595686864</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -37935,28 +37935,28 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>92.55355323165878</v>
+        <v>80.63966029520621</v>
       </c>
       <c r="K43" t="n">
-        <v>253.0227961629121</v>
+        <v>219.8343186595512</v>
       </c>
       <c r="L43" t="n">
-        <v>366.7325087887907</v>
+        <v>318.3460770095692</v>
       </c>
       <c r="M43" t="n">
-        <v>394.6085160120764</v>
+        <v>342.4417313086132</v>
       </c>
       <c r="N43" t="n">
-        <v>391.8320827861327</v>
+        <v>341.4087679352443</v>
       </c>
       <c r="O43" t="n">
-        <v>349.3282668412323</v>
+        <v>304.3692416502435</v>
       </c>
       <c r="P43" t="n">
-        <v>281.932207763703</v>
+        <v>246.5154907414415</v>
       </c>
       <c r="Q43" t="n">
-        <v>125.3693751564862</v>
+        <v>107.3575901015154</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38014,31 +38014,31 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>359.8836161407863</v>
+        <v>271.3780219415079</v>
       </c>
       <c r="K44" t="n">
-        <v>661.3366991265652</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L44" t="n">
-        <v>455.5901143923322</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M44" t="n">
-        <v>988.4346493230593</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N44" t="n">
-        <v>769.2895937392443</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O44" t="n">
-        <v>508.0530008882191</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P44" t="n">
-        <v>398.7619862193719</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q44" t="n">
-        <v>463.1092954636242</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R44" t="n">
-        <v>125.3296184152072</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38093,31 +38093,31 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>94.6235045359771</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K45" t="n">
-        <v>240.6709080609567</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L45" t="n">
-        <v>370.4021821340054</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M45" t="n">
-        <v>451.7942679013292</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N45" t="n">
-        <v>478.3061046004592</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O45" t="n">
-        <v>415.1124034525806</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P45" t="n">
-        <v>313.6359509859624</v>
+        <v>484.7652115523313</v>
       </c>
       <c r="Q45" t="n">
-        <v>159.2338966127272</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R45" t="n">
-        <v>0</v>
+        <v>10.73738595686864</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -38172,28 +38172,28 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>92.55355323165878</v>
+        <v>80.63966029520623</v>
       </c>
       <c r="K46" t="n">
-        <v>253.0227961629121</v>
+        <v>219.8343186595513</v>
       </c>
       <c r="L46" t="n">
-        <v>366.7325087887907</v>
+        <v>318.3460770095692</v>
       </c>
       <c r="M46" t="n">
-        <v>394.6085160120764</v>
+        <v>342.4417313086133</v>
       </c>
       <c r="N46" t="n">
-        <v>391.8320827861327</v>
+        <v>341.4087679352443</v>
       </c>
       <c r="O46" t="n">
-        <v>349.3282668412323</v>
+        <v>304.3692416502436</v>
       </c>
       <c r="P46" t="n">
-        <v>281.932207763703</v>
+        <v>246.5154907414415</v>
       </c>
       <c r="Q46" t="n">
-        <v>125.3693751564862</v>
+        <v>107.3575901015155</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>
